--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_5_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_5_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>317901.4896721395</v>
+        <v>358916.0304775628</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26510653.87194557</v>
+        <v>26351457.05510702</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4487701.693372886</v>
+        <v>4551635.668092856</v>
       </c>
     </row>
     <row r="11">
@@ -22559,49 +22561,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G2" t="n">
-        <v>425.3631419705275</v>
+        <v>425.3319364013184</v>
       </c>
       <c r="H2" t="n">
-        <v>361.083527812557</v>
+        <v>360.7639437768947</v>
       </c>
       <c r="I2" t="n">
-        <v>297.8580543676313</v>
+        <v>296.6550016606989</v>
       </c>
       <c r="J2" t="n">
-        <v>197.5370229566986</v>
+        <v>194.8884892770409</v>
       </c>
       <c r="K2" t="n">
-        <v>212.7738698580642</v>
+        <v>208.8044044337869</v>
       </c>
       <c r="L2" t="n">
-        <v>203.3937265548011</v>
+        <v>198.4692536918421</v>
       </c>
       <c r="M2" t="n">
-        <v>174.3320480963427</v>
+        <v>168.8526231919619</v>
       </c>
       <c r="N2" t="n">
-        <v>169.5797525742951</v>
+        <v>164.0116648463991</v>
       </c>
       <c r="O2" t="n">
-        <v>182.018038031285</v>
+        <v>176.7602506822117</v>
       </c>
       <c r="P2" t="n">
-        <v>211.9786150263909</v>
+        <v>207.4912151671663</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.2585393133201</v>
+        <v>234.8886889013949</v>
       </c>
       <c r="R2" t="n">
-        <v>278.7851769012656</v>
+        <v>276.8249600644368</v>
       </c>
       <c r="S2" t="n">
-        <v>261.9453705225658</v>
+        <v>261.2342736142143</v>
       </c>
       <c r="T2" t="n">
-        <v>221.3786313295378</v>
+        <v>221.2420289503251</v>
       </c>
       <c r="U2" t="n">
-        <v>247.9517743239616</v>
+        <v>247.9492778784249</v>
       </c>
       <c r="V2" t="n">
         <v>308.2281821605244</v>
@@ -22638,49 +22640,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>169.7418267907412</v>
+        <v>169.7251303392536</v>
       </c>
       <c r="H3" t="n">
-        <v>150.6734855721516</v>
+        <v>150.512233001205</v>
       </c>
       <c r="I3" t="n">
-        <v>140.7435606385208</v>
+        <v>140.1687047430027</v>
       </c>
       <c r="J3" t="n">
-        <v>148.539577715101</v>
+        <v>146.9621291997691</v>
       </c>
       <c r="K3" t="n">
-        <v>125.593362827718</v>
+        <v>122.8972520627128</v>
       </c>
       <c r="L3" t="n">
-        <v>92.84130138719635</v>
+        <v>89.21604774291296</v>
       </c>
       <c r="M3" t="n">
-        <v>76.56878252612637</v>
+        <v>72.33828251541533</v>
       </c>
       <c r="N3" t="n">
-        <v>54.94477683874706</v>
+        <v>50.60230808099814</v>
       </c>
       <c r="O3" t="n">
-        <v>86.7356225324562</v>
+        <v>82.76311198924964</v>
       </c>
       <c r="P3" t="n">
-        <v>101.3465521584672</v>
+        <v>98.15826222482802</v>
       </c>
       <c r="Q3" t="n">
-        <v>149.6855611195313</v>
+        <v>147.5542737331416</v>
       </c>
       <c r="R3" t="n">
-        <v>198.8951526763332</v>
+        <v>197.8585080830906</v>
       </c>
       <c r="S3" t="n">
-        <v>228.4034259556971</v>
+        <v>228.0932966923189</v>
       </c>
       <c r="T3" t="n">
-        <v>242.2634824980462</v>
+        <v>242.1961840817429</v>
       </c>
       <c r="U3" t="n">
-        <v>258.0064176669804</v>
+        <v>258.0053192162247</v>
       </c>
       <c r="V3" t="n">
         <v>255.0969898936781</v>
@@ -22717,49 +22719,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G4" t="n">
-        <v>170.0148694856145</v>
+        <v>170.0008717415574</v>
       </c>
       <c r="H4" t="n">
-        <v>172.5125810721775</v>
+        <v>172.388128402288</v>
       </c>
       <c r="I4" t="n">
-        <v>182.3854065011516</v>
+        <v>181.964456161689</v>
       </c>
       <c r="J4" t="n">
-        <v>170.2490097190589</v>
+        <v>169.2593692142221</v>
       </c>
       <c r="K4" t="n">
-        <v>150.2926714998491</v>
+        <v>148.6663881448517</v>
       </c>
       <c r="L4" t="n">
-        <v>143.2350763053699</v>
+        <v>141.1539935207356</v>
       </c>
       <c r="M4" t="n">
-        <v>145.6731131081891</v>
+        <v>143.4789031011296</v>
       </c>
       <c r="N4" t="n">
-        <v>129.3118779353426</v>
+        <v>127.1698413379505</v>
       </c>
       <c r="O4" t="n">
-        <v>152.7826404124129</v>
+        <v>150.8041229160515</v>
       </c>
       <c r="P4" t="n">
-        <v>162.0205318729156</v>
+        <v>160.327568355319</v>
       </c>
       <c r="Q4" t="n">
-        <v>203.4171828548767</v>
+        <v>202.2450626684228</v>
       </c>
       <c r="R4" t="n">
-        <v>251.8788850013734</v>
+        <v>251.2494955276788</v>
       </c>
       <c r="S4" t="n">
-        <v>256.5932939716247</v>
+        <v>256.3493514683751</v>
       </c>
       <c r="T4" t="n">
-        <v>216.0908646807395</v>
+        <v>216.0310561379501</v>
       </c>
       <c r="U4" t="n">
-        <v>292.9601378240686</v>
+        <v>292.9593743107565</v>
       </c>
       <c r="V4" t="n">
         <v>232.1699497460494</v>
@@ -23270,49 +23272,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G11" t="n">
-        <v>424.412755955792</v>
+        <v>424.3703131815284</v>
       </c>
       <c r="H11" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9157199772197</v>
       </c>
       <c r="I11" t="n">
-        <v>261.2182975345403</v>
+        <v>259.5820224797425</v>
       </c>
       <c r="J11" t="n">
-        <v>116.87419793854</v>
+        <v>113.2719205263841</v>
       </c>
       <c r="K11" t="n">
-        <v>91.88120483615114</v>
+        <v>86.48232478941668</v>
       </c>
       <c r="L11" t="n">
-        <v>53.41568553442607</v>
+        <v>46.71789743482168</v>
       </c>
       <c r="M11" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>21.88868639101628</v>
+        <v>14.7375564088087</v>
       </c>
       <c r="P11" t="n">
-        <v>75.31191812490522</v>
+        <v>69.20859413233046</v>
       </c>
       <c r="Q11" t="n">
-        <v>135.6275415645501</v>
+        <v>131.0441994252908</v>
       </c>
       <c r="R11" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4193954842993</v>
       </c>
       <c r="S11" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3212844932483</v>
       </c>
       <c r="T11" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0325233056941</v>
       </c>
       <c r="U11" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8723480208417</v>
       </c>
       <c r="V11" t="n">
         <v>308.2281821605244</v>
@@ -23349,19 +23351,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>169.2333254433287</v>
+        <v>169.21061655708</v>
       </c>
       <c r="H12" t="n">
-        <v>145.7624330852993</v>
+        <v>145.5431130523186</v>
       </c>
       <c r="I12" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4540854883441</v>
       </c>
       <c r="J12" t="n">
-        <v>100.4973517299579</v>
+        <v>98.35185998134867</v>
       </c>
       <c r="K12" t="n">
-        <v>43.48154656593752</v>
+        <v>39.81455943866638</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.77581017613943</v>
+        <v>81.8770407665705</v>
       </c>
       <c r="R12" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9135208004222</v>
       </c>
       <c r="S12" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5364288523852</v>
       </c>
       <c r="T12" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1223324772803</v>
       </c>
       <c r="U12" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9714696252922</v>
       </c>
       <c r="V12" t="n">
         <v>255.0969898936781</v>
@@ -23428,49 +23430,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>169.5885590376112</v>
+        <v>169.5695206702212</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7222936344755</v>
+        <v>168.553025240772</v>
       </c>
       <c r="I13" t="n">
-        <v>169.5650886648345</v>
+        <v>168.992553034598</v>
       </c>
       <c r="J13" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7628484707558</v>
       </c>
       <c r="K13" t="n">
-        <v>100.7631485409216</v>
+        <v>98.55123640234183</v>
       </c>
       <c r="L13" t="n">
-        <v>79.85433933586287</v>
+        <v>77.02385333317633</v>
       </c>
       <c r="M13" t="n">
-        <v>78.84701260891001</v>
+        <v>75.86266198249908</v>
       </c>
       <c r="N13" t="n">
-        <v>64.0747527422576</v>
+        <v>61.16136330339108</v>
       </c>
       <c r="O13" t="n">
-        <v>92.52559636191177</v>
+        <v>89.83460966937352</v>
       </c>
       <c r="P13" t="n">
-        <v>110.4602209616816</v>
+        <v>108.1576169638986</v>
       </c>
       <c r="Q13" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1252925040833</v>
       </c>
       <c r="R13" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8543828110549</v>
       </c>
       <c r="S13" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8320787069986</v>
       </c>
       <c r="T13" t="n">
-        <v>214.2693564029072</v>
+        <v>214.188010651332</v>
       </c>
       <c r="U13" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358460705017</v>
       </c>
       <c r="V13" t="n">
         <v>232.1699497460494</v>
@@ -23507,49 +23509,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G14" t="n">
-        <v>424.412755955792</v>
+        <v>424.3703131815284</v>
       </c>
       <c r="H14" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9157199772197</v>
       </c>
       <c r="I14" t="n">
-        <v>261.2182975345403</v>
+        <v>259.5820224797425</v>
       </c>
       <c r="J14" t="n">
-        <v>116.87419793854</v>
+        <v>113.2719205263841</v>
       </c>
       <c r="K14" t="n">
-        <v>91.88120483615114</v>
+        <v>86.48232478941668</v>
       </c>
       <c r="L14" t="n">
-        <v>53.41568553442607</v>
+        <v>46.71789743482168</v>
       </c>
       <c r="M14" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>21.88868639101628</v>
+        <v>14.7375564088087</v>
       </c>
       <c r="P14" t="n">
-        <v>75.31191812490522</v>
+        <v>69.20859413233046</v>
       </c>
       <c r="Q14" t="n">
-        <v>135.6275415645501</v>
+        <v>131.0441994252908</v>
       </c>
       <c r="R14" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4193954842993</v>
       </c>
       <c r="S14" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3212844932483</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0325233056941</v>
       </c>
       <c r="U14" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8723480208417</v>
       </c>
       <c r="V14" t="n">
         <v>308.2281821605244</v>
@@ -23586,19 +23588,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>169.2333254433287</v>
+        <v>169.21061655708</v>
       </c>
       <c r="H15" t="n">
-        <v>145.7624330852993</v>
+        <v>145.5431130523186</v>
       </c>
       <c r="I15" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4540854883441</v>
       </c>
       <c r="J15" t="n">
-        <v>100.4973517299579</v>
+        <v>98.35185998134867</v>
       </c>
       <c r="K15" t="n">
-        <v>43.48154656593752</v>
+        <v>39.81455943866638</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.77581017613943</v>
+        <v>81.8770407665705</v>
       </c>
       <c r="R15" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9135208004222</v>
       </c>
       <c r="S15" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5364288523852</v>
       </c>
       <c r="T15" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1223324772803</v>
       </c>
       <c r="U15" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9714696252922</v>
       </c>
       <c r="V15" t="n">
         <v>255.0969898936781</v>
@@ -23665,49 +23667,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.5885590376112</v>
+        <v>169.5695206702212</v>
       </c>
       <c r="H16" t="n">
-        <v>168.7222936344755</v>
+        <v>168.553025240772</v>
       </c>
       <c r="I16" t="n">
-        <v>169.5650886648345</v>
+        <v>168.992553034598</v>
       </c>
       <c r="J16" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7628484707558</v>
       </c>
       <c r="K16" t="n">
-        <v>100.7631485409216</v>
+        <v>98.55123640234183</v>
       </c>
       <c r="L16" t="n">
-        <v>79.85433933586287</v>
+        <v>77.02385333317633</v>
       </c>
       <c r="M16" t="n">
-        <v>78.84701260891001</v>
+        <v>75.86266198249908</v>
       </c>
       <c r="N16" t="n">
-        <v>64.0747527422576</v>
+        <v>61.16136330339108</v>
       </c>
       <c r="O16" t="n">
-        <v>92.52559636191177</v>
+        <v>89.83460966937352</v>
       </c>
       <c r="P16" t="n">
-        <v>110.4602209616816</v>
+        <v>108.1576169638986</v>
       </c>
       <c r="Q16" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1252925040833</v>
       </c>
       <c r="R16" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8543828110549</v>
       </c>
       <c r="S16" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8320787069986</v>
       </c>
       <c r="T16" t="n">
-        <v>214.2693564029072</v>
+        <v>214.188010651332</v>
       </c>
       <c r="U16" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358460705017</v>
       </c>
       <c r="V16" t="n">
         <v>232.1699497460494</v>
@@ -23744,49 +23746,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G17" t="n">
-        <v>424.412755955792</v>
+        <v>424.3703131815284</v>
       </c>
       <c r="H17" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9157199772197</v>
       </c>
       <c r="I17" t="n">
-        <v>261.2182975345403</v>
+        <v>259.5820224797425</v>
       </c>
       <c r="J17" t="n">
-        <v>116.87419793854</v>
+        <v>113.2719205263841</v>
       </c>
       <c r="K17" t="n">
-        <v>91.8812048361512</v>
+        <v>86.48232478941668</v>
       </c>
       <c r="L17" t="n">
-        <v>53.41568553442607</v>
+        <v>46.71789743482168</v>
       </c>
       <c r="M17" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>21.88868639101628</v>
+        <v>14.7375564088087</v>
       </c>
       <c r="P17" t="n">
-        <v>75.31191812490522</v>
+        <v>69.20859413233046</v>
       </c>
       <c r="Q17" t="n">
-        <v>135.6275415645501</v>
+        <v>131.0441994252908</v>
       </c>
       <c r="R17" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4193954842993</v>
       </c>
       <c r="S17" t="n">
-        <v>240.2884492117803</v>
+        <v>239.3212844932483</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0325233056941</v>
       </c>
       <c r="U17" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8723480208417</v>
       </c>
       <c r="V17" t="n">
         <v>308.2281821605244</v>
@@ -23823,19 +23825,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>169.2333254433287</v>
+        <v>169.21061655708</v>
       </c>
       <c r="H18" t="n">
-        <v>145.7624330852993</v>
+        <v>145.5431130523186</v>
       </c>
       <c r="I18" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4540854883441</v>
       </c>
       <c r="J18" t="n">
-        <v>100.4973517299579</v>
+        <v>98.35185998134867</v>
       </c>
       <c r="K18" t="n">
-        <v>43.48154656593752</v>
+        <v>39.81455943866638</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.77581017613943</v>
+        <v>81.8770407665705</v>
       </c>
       <c r="R18" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9135208004222</v>
       </c>
       <c r="S18" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5364288523852</v>
       </c>
       <c r="T18" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1223324772803</v>
       </c>
       <c r="U18" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9714696252922</v>
       </c>
       <c r="V18" t="n">
         <v>255.0969898936781</v>
@@ -23902,49 +23904,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.5885590376112</v>
+        <v>169.5695206702212</v>
       </c>
       <c r="H19" t="n">
-        <v>168.7222936344755</v>
+        <v>168.553025240772</v>
       </c>
       <c r="I19" t="n">
-        <v>169.5650886648345</v>
+        <v>168.992553034598</v>
       </c>
       <c r="J19" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7628484707558</v>
       </c>
       <c r="K19" t="n">
-        <v>100.7631485409216</v>
+        <v>98.55123640234183</v>
       </c>
       <c r="L19" t="n">
-        <v>79.8543393358629</v>
+        <v>77.02385333317633</v>
       </c>
       <c r="M19" t="n">
-        <v>78.84701260891001</v>
+        <v>75.86266198249908</v>
       </c>
       <c r="N19" t="n">
-        <v>64.0747527422576</v>
+        <v>61.16136330339108</v>
       </c>
       <c r="O19" t="n">
-        <v>92.52559636191177</v>
+        <v>89.83460966937352</v>
       </c>
       <c r="P19" t="n">
-        <v>110.4602209616816</v>
+        <v>108.1576169638986</v>
       </c>
       <c r="Q19" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1252925040833</v>
       </c>
       <c r="R19" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8543828110549</v>
       </c>
       <c r="S19" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8320787069986</v>
       </c>
       <c r="T19" t="n">
-        <v>214.2693564029073</v>
+        <v>214.188010651332</v>
       </c>
       <c r="U19" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358460705017</v>
       </c>
       <c r="V19" t="n">
         <v>232.1699497460494</v>
@@ -23981,49 +23983,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G20" t="n">
-        <v>424.412755955792</v>
+        <v>424.3703131815284</v>
       </c>
       <c r="H20" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9157199772197</v>
       </c>
       <c r="I20" t="n">
-        <v>261.2182975345403</v>
+        <v>259.5820224797425</v>
       </c>
       <c r="J20" t="n">
-        <v>116.87419793854</v>
+        <v>113.2719205263841</v>
       </c>
       <c r="K20" t="n">
-        <v>91.88120483615114</v>
+        <v>86.48232478941668</v>
       </c>
       <c r="L20" t="n">
-        <v>53.41568553442607</v>
+        <v>46.71789743482168</v>
       </c>
       <c r="M20" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>21.88868639101628</v>
+        <v>14.7375564088087</v>
       </c>
       <c r="P20" t="n">
-        <v>75.31191812490522</v>
+        <v>69.20859413233046</v>
       </c>
       <c r="Q20" t="n">
-        <v>135.6275415645501</v>
+        <v>131.0441994252908</v>
       </c>
       <c r="R20" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4193954842993</v>
       </c>
       <c r="S20" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3212844932483</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0325233056941</v>
       </c>
       <c r="U20" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8723480208417</v>
       </c>
       <c r="V20" t="n">
         <v>308.2281821605244</v>
@@ -24060,19 +24062,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>169.2333254433287</v>
+        <v>169.21061655708</v>
       </c>
       <c r="H21" t="n">
-        <v>145.7624330852993</v>
+        <v>145.5431130523186</v>
       </c>
       <c r="I21" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4540854883441</v>
       </c>
       <c r="J21" t="n">
-        <v>100.4973517299579</v>
+        <v>98.35185998134867</v>
       </c>
       <c r="K21" t="n">
-        <v>43.48154656593752</v>
+        <v>39.81455943866638</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.77581017613943</v>
+        <v>81.8770407665705</v>
       </c>
       <c r="R21" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9135208004222</v>
       </c>
       <c r="S21" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5364288523852</v>
       </c>
       <c r="T21" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1223324772803</v>
       </c>
       <c r="U21" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9714696252922</v>
       </c>
       <c r="V21" t="n">
         <v>255.0969898936781</v>
@@ -24139,49 +24141,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>169.5885590376112</v>
+        <v>169.5695206702212</v>
       </c>
       <c r="H22" t="n">
-        <v>168.7222936344755</v>
+        <v>168.553025240772</v>
       </c>
       <c r="I22" t="n">
-        <v>169.5650886648345</v>
+        <v>168.992553034598</v>
       </c>
       <c r="J22" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7628484707558</v>
       </c>
       <c r="K22" t="n">
-        <v>100.7631485409216</v>
+        <v>98.55123640234183</v>
       </c>
       <c r="L22" t="n">
-        <v>79.85433933586287</v>
+        <v>77.02385333317633</v>
       </c>
       <c r="M22" t="n">
-        <v>78.84701260891001</v>
+        <v>75.86266198249908</v>
       </c>
       <c r="N22" t="n">
-        <v>64.0747527422576</v>
+        <v>61.16136330339108</v>
       </c>
       <c r="O22" t="n">
-        <v>92.52559636191177</v>
+        <v>89.83460966937352</v>
       </c>
       <c r="P22" t="n">
-        <v>110.4602209616816</v>
+        <v>108.1576169638986</v>
       </c>
       <c r="Q22" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1252925040833</v>
       </c>
       <c r="R22" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8543828110549</v>
       </c>
       <c r="S22" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8320787069986</v>
       </c>
       <c r="T22" t="n">
-        <v>214.2693564029072</v>
+        <v>214.188010651332</v>
       </c>
       <c r="U22" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358460705017</v>
       </c>
       <c r="V22" t="n">
         <v>232.1699497460494</v>
@@ -24218,49 +24220,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G23" t="n">
-        <v>424.412755955792</v>
+        <v>424.3703131815284</v>
       </c>
       <c r="H23" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9157199772197</v>
       </c>
       <c r="I23" t="n">
-        <v>261.2182975345403</v>
+        <v>259.5820224797425</v>
       </c>
       <c r="J23" t="n">
-        <v>116.87419793854</v>
+        <v>113.2719205263841</v>
       </c>
       <c r="K23" t="n">
-        <v>91.88120483615114</v>
+        <v>86.48232478941668</v>
       </c>
       <c r="L23" t="n">
-        <v>53.41568553442607</v>
+        <v>46.71789743482168</v>
       </c>
       <c r="M23" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>21.88868639101628</v>
+        <v>14.7375564088087</v>
       </c>
       <c r="P23" t="n">
-        <v>75.31191812490522</v>
+        <v>69.20859413233046</v>
       </c>
       <c r="Q23" t="n">
-        <v>135.6275415645501</v>
+        <v>131.0441994252908</v>
       </c>
       <c r="R23" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4193954842993</v>
       </c>
       <c r="S23" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3212844932483</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0325233056941</v>
       </c>
       <c r="U23" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8723480208417</v>
       </c>
       <c r="V23" t="n">
         <v>308.2281821605244</v>
@@ -24297,19 +24299,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>169.2333254433287</v>
+        <v>169.21061655708</v>
       </c>
       <c r="H24" t="n">
-        <v>145.7624330852993</v>
+        <v>145.5431130523186</v>
       </c>
       <c r="I24" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4540854883441</v>
       </c>
       <c r="J24" t="n">
-        <v>100.4973517299579</v>
+        <v>98.35185998134867</v>
       </c>
       <c r="K24" t="n">
-        <v>43.48154656593752</v>
+        <v>39.81455943866638</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.77581017613943</v>
+        <v>81.8770407665705</v>
       </c>
       <c r="R24" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9135208004222</v>
       </c>
       <c r="S24" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5364288523852</v>
       </c>
       <c r="T24" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1223324772803</v>
       </c>
       <c r="U24" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9714696252922</v>
       </c>
       <c r="V24" t="n">
         <v>255.0969898936781</v>
@@ -24376,49 +24378,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.5885590376112</v>
+        <v>169.5695206702212</v>
       </c>
       <c r="H25" t="n">
-        <v>168.7222936344755</v>
+        <v>168.553025240772</v>
       </c>
       <c r="I25" t="n">
-        <v>169.5650886648345</v>
+        <v>168.992553034598</v>
       </c>
       <c r="J25" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7628484707558</v>
       </c>
       <c r="K25" t="n">
-        <v>100.7631485409216</v>
+        <v>98.55123640234183</v>
       </c>
       <c r="L25" t="n">
-        <v>79.85433933586287</v>
+        <v>77.02385333317633</v>
       </c>
       <c r="M25" t="n">
-        <v>78.84701260891001</v>
+        <v>75.86266198249908</v>
       </c>
       <c r="N25" t="n">
-        <v>64.0747527422576</v>
+        <v>61.16136330339108</v>
       </c>
       <c r="O25" t="n">
-        <v>92.52559636191177</v>
+        <v>89.83460966937352</v>
       </c>
       <c r="P25" t="n">
-        <v>110.4602209616816</v>
+        <v>108.1576169638986</v>
       </c>
       <c r="Q25" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1252925040833</v>
       </c>
       <c r="R25" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8543828110549</v>
       </c>
       <c r="S25" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8320787069986</v>
       </c>
       <c r="T25" t="n">
-        <v>214.2693564029072</v>
+        <v>214.188010651332</v>
       </c>
       <c r="U25" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358460705017</v>
       </c>
       <c r="V25" t="n">
         <v>232.1699497460494</v>
@@ -24455,49 +24457,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G26" t="n">
-        <v>424.412755955792</v>
+        <v>424.3703131815284</v>
       </c>
       <c r="H26" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9157199772197</v>
       </c>
       <c r="I26" t="n">
-        <v>261.2182975345403</v>
+        <v>259.5820224797425</v>
       </c>
       <c r="J26" t="n">
-        <v>116.87419793854</v>
+        <v>113.2719205263841</v>
       </c>
       <c r="K26" t="n">
-        <v>91.88120483615114</v>
+        <v>86.48232478941668</v>
       </c>
       <c r="L26" t="n">
-        <v>53.41568553442607</v>
+        <v>46.71789743482168</v>
       </c>
       <c r="M26" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>21.88868639101628</v>
+        <v>14.7375564088087</v>
       </c>
       <c r="P26" t="n">
-        <v>75.31191812490522</v>
+        <v>69.20859413233046</v>
       </c>
       <c r="Q26" t="n">
-        <v>135.6275415645501</v>
+        <v>131.0441994252908</v>
       </c>
       <c r="R26" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4193954842993</v>
       </c>
       <c r="S26" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3212844932483</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0325233056941</v>
       </c>
       <c r="U26" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8723480208417</v>
       </c>
       <c r="V26" t="n">
         <v>308.2281821605244</v>
@@ -24534,19 +24536,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>169.2333254433287</v>
+        <v>169.21061655708</v>
       </c>
       <c r="H27" t="n">
-        <v>145.7624330852993</v>
+        <v>145.5431130523186</v>
       </c>
       <c r="I27" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4540854883441</v>
       </c>
       <c r="J27" t="n">
-        <v>100.4973517299579</v>
+        <v>98.35185998134867</v>
       </c>
       <c r="K27" t="n">
-        <v>43.48154656593752</v>
+        <v>39.81455943866638</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.77581017613943</v>
+        <v>81.8770407665705</v>
       </c>
       <c r="R27" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9135208004222</v>
       </c>
       <c r="S27" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5364288523852</v>
       </c>
       <c r="T27" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1223324772803</v>
       </c>
       <c r="U27" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9714696252922</v>
       </c>
       <c r="V27" t="n">
         <v>255.0969898936781</v>
@@ -24613,49 +24615,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>169.5885590376112</v>
+        <v>169.5695206702212</v>
       </c>
       <c r="H28" t="n">
-        <v>168.7222936344755</v>
+        <v>168.553025240772</v>
       </c>
       <c r="I28" t="n">
-        <v>169.5650886648345</v>
+        <v>168.992553034598</v>
       </c>
       <c r="J28" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7628484707558</v>
       </c>
       <c r="K28" t="n">
-        <v>100.7631485409216</v>
+        <v>98.55123640234183</v>
       </c>
       <c r="L28" t="n">
-        <v>79.85433933586287</v>
+        <v>77.02385333317633</v>
       </c>
       <c r="M28" t="n">
-        <v>78.84701260891001</v>
+        <v>75.86266198249908</v>
       </c>
       <c r="N28" t="n">
-        <v>64.0747527422576</v>
+        <v>61.16136330339108</v>
       </c>
       <c r="O28" t="n">
-        <v>92.52559636191177</v>
+        <v>89.83460966937352</v>
       </c>
       <c r="P28" t="n">
-        <v>110.4602209616816</v>
+        <v>108.1576169638986</v>
       </c>
       <c r="Q28" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1252925040833</v>
       </c>
       <c r="R28" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8543828110549</v>
       </c>
       <c r="S28" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8320787069986</v>
       </c>
       <c r="T28" t="n">
-        <v>214.2693564029072</v>
+        <v>214.188010651332</v>
       </c>
       <c r="U28" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358460705017</v>
       </c>
       <c r="V28" t="n">
         <v>232.1699497460494</v>
@@ -24692,49 +24694,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G29" t="n">
-        <v>424.412755955792</v>
+        <v>424.3703131815284</v>
       </c>
       <c r="H29" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9157199772197</v>
       </c>
       <c r="I29" t="n">
-        <v>261.2182975345403</v>
+        <v>259.5820224797425</v>
       </c>
       <c r="J29" t="n">
-        <v>116.87419793854</v>
+        <v>113.2719205263841</v>
       </c>
       <c r="K29" t="n">
-        <v>91.88120483615114</v>
+        <v>86.48232478941668</v>
       </c>
       <c r="L29" t="n">
-        <v>53.41568553442607</v>
+        <v>46.71789743482168</v>
       </c>
       <c r="M29" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>21.88868639101628</v>
+        <v>14.7375564088087</v>
       </c>
       <c r="P29" t="n">
-        <v>75.31191812490522</v>
+        <v>69.20859413233046</v>
       </c>
       <c r="Q29" t="n">
-        <v>135.6275415645501</v>
+        <v>131.0441994252908</v>
       </c>
       <c r="R29" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4193954842993</v>
       </c>
       <c r="S29" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3212844932483</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0325233056941</v>
       </c>
       <c r="U29" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8723480208417</v>
       </c>
       <c r="V29" t="n">
         <v>308.2281821605244</v>
@@ -24771,19 +24773,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>169.2333254433287</v>
+        <v>169.21061655708</v>
       </c>
       <c r="H30" t="n">
-        <v>145.7624330852993</v>
+        <v>145.5431130523186</v>
       </c>
       <c r="I30" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4540854883441</v>
       </c>
       <c r="J30" t="n">
-        <v>100.4973517299579</v>
+        <v>98.35185998134867</v>
       </c>
       <c r="K30" t="n">
-        <v>43.48154656593752</v>
+        <v>39.81455943866638</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.77581017613943</v>
+        <v>81.8770407665705</v>
       </c>
       <c r="R30" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9135208004222</v>
       </c>
       <c r="S30" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5364288523852</v>
       </c>
       <c r="T30" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1223324772803</v>
       </c>
       <c r="U30" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9714696252922</v>
       </c>
       <c r="V30" t="n">
         <v>255.0969898936781</v>
@@ -24850,49 +24852,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>169.5885590376112</v>
+        <v>169.5695206702212</v>
       </c>
       <c r="H31" t="n">
-        <v>168.7222936344755</v>
+        <v>168.553025240772</v>
       </c>
       <c r="I31" t="n">
-        <v>169.5650886648345</v>
+        <v>168.992553034598</v>
       </c>
       <c r="J31" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7628484707558</v>
       </c>
       <c r="K31" t="n">
-        <v>100.7631485409216</v>
+        <v>98.55123640234183</v>
       </c>
       <c r="L31" t="n">
-        <v>79.85433933586287</v>
+        <v>77.02385333317633</v>
       </c>
       <c r="M31" t="n">
-        <v>78.84701260891001</v>
+        <v>75.86266198249908</v>
       </c>
       <c r="N31" t="n">
-        <v>64.0747527422576</v>
+        <v>61.16136330339108</v>
       </c>
       <c r="O31" t="n">
-        <v>92.52559636191177</v>
+        <v>89.83460966937352</v>
       </c>
       <c r="P31" t="n">
-        <v>110.4602209616816</v>
+        <v>108.1576169638986</v>
       </c>
       <c r="Q31" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1252925040833</v>
       </c>
       <c r="R31" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8543828110549</v>
       </c>
       <c r="S31" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8320787069986</v>
       </c>
       <c r="T31" t="n">
-        <v>214.2693564029072</v>
+        <v>214.188010651332</v>
       </c>
       <c r="U31" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358460705017</v>
       </c>
       <c r="V31" t="n">
         <v>232.1699497460494</v>
@@ -24929,49 +24931,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G32" t="n">
-        <v>424.412755955792</v>
+        <v>424.3703131815284</v>
       </c>
       <c r="H32" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9157199772197</v>
       </c>
       <c r="I32" t="n">
-        <v>261.2182975345403</v>
+        <v>259.5820224797425</v>
       </c>
       <c r="J32" t="n">
-        <v>116.87419793854</v>
+        <v>113.2719205263841</v>
       </c>
       <c r="K32" t="n">
-        <v>91.88120483615114</v>
+        <v>86.48232478941668</v>
       </c>
       <c r="L32" t="n">
-        <v>53.41568553442607</v>
+        <v>46.71789743482168</v>
       </c>
       <c r="M32" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>21.88868639101628</v>
+        <v>14.7375564088087</v>
       </c>
       <c r="P32" t="n">
-        <v>75.31191812490522</v>
+        <v>69.20859413233046</v>
       </c>
       <c r="Q32" t="n">
-        <v>135.6275415645501</v>
+        <v>131.0441994252908</v>
       </c>
       <c r="R32" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4193954842993</v>
       </c>
       <c r="S32" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3212844932483</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0325233056941</v>
       </c>
       <c r="U32" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8723480208417</v>
       </c>
       <c r="V32" t="n">
         <v>308.2281821605244</v>
@@ -25008,19 +25010,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>169.2333254433287</v>
+        <v>169.21061655708</v>
       </c>
       <c r="H33" t="n">
-        <v>145.7624330852993</v>
+        <v>145.5431130523186</v>
       </c>
       <c r="I33" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4540854883441</v>
       </c>
       <c r="J33" t="n">
-        <v>100.4973517299579</v>
+        <v>98.35185998134867</v>
       </c>
       <c r="K33" t="n">
-        <v>43.48154656593752</v>
+        <v>39.81455943866638</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.77581017613943</v>
+        <v>81.8770407665705</v>
       </c>
       <c r="R33" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9135208004222</v>
       </c>
       <c r="S33" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5364288523852</v>
       </c>
       <c r="T33" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1223324772803</v>
       </c>
       <c r="U33" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9714696252922</v>
       </c>
       <c r="V33" t="n">
         <v>255.0969898936781</v>
@@ -25087,49 +25089,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>169.5885590376112</v>
+        <v>169.5695206702212</v>
       </c>
       <c r="H34" t="n">
-        <v>168.7222936344755</v>
+        <v>168.553025240772</v>
       </c>
       <c r="I34" t="n">
-        <v>169.5650886648345</v>
+        <v>168.992553034598</v>
       </c>
       <c r="J34" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7628484707558</v>
       </c>
       <c r="K34" t="n">
-        <v>100.7631485409216</v>
+        <v>98.55123640234183</v>
       </c>
       <c r="L34" t="n">
-        <v>79.85433933586287</v>
+        <v>77.02385333317633</v>
       </c>
       <c r="M34" t="n">
-        <v>78.84701260891001</v>
+        <v>75.86266198249908</v>
       </c>
       <c r="N34" t="n">
-        <v>64.0747527422576</v>
+        <v>61.16136330339108</v>
       </c>
       <c r="O34" t="n">
-        <v>92.52559636191177</v>
+        <v>89.83460966937352</v>
       </c>
       <c r="P34" t="n">
-        <v>110.4602209616816</v>
+        <v>108.1576169638986</v>
       </c>
       <c r="Q34" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1252925040833</v>
       </c>
       <c r="R34" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8543828110549</v>
       </c>
       <c r="S34" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8320787069986</v>
       </c>
       <c r="T34" t="n">
-        <v>214.2693564029072</v>
+        <v>214.188010651332</v>
       </c>
       <c r="U34" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358460705017</v>
       </c>
       <c r="V34" t="n">
         <v>232.1699497460494</v>
@@ -25166,49 +25168,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G35" t="n">
-        <v>424.412755955792</v>
+        <v>424.3703131815284</v>
       </c>
       <c r="H35" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9157199772197</v>
       </c>
       <c r="I35" t="n">
-        <v>261.2182975345403</v>
+        <v>259.5820224797425</v>
       </c>
       <c r="J35" t="n">
-        <v>116.87419793854</v>
+        <v>113.2719205263841</v>
       </c>
       <c r="K35" t="n">
-        <v>91.88120483615114</v>
+        <v>86.48232478941668</v>
       </c>
       <c r="L35" t="n">
-        <v>53.41568553442607</v>
+        <v>46.71789743482168</v>
       </c>
       <c r="M35" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>21.88868639101628</v>
+        <v>14.7375564088087</v>
       </c>
       <c r="P35" t="n">
-        <v>75.31191812490522</v>
+        <v>69.20859413233046</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.6275415645501</v>
+        <v>131.0441994252908</v>
       </c>
       <c r="R35" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4193954842993</v>
       </c>
       <c r="S35" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3212844932483</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0325233056941</v>
       </c>
       <c r="U35" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8723480208417</v>
       </c>
       <c r="V35" t="n">
         <v>308.2281821605244</v>
@@ -25245,19 +25247,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>169.2333254433287</v>
+        <v>169.21061655708</v>
       </c>
       <c r="H36" t="n">
-        <v>145.7624330852993</v>
+        <v>145.5431130523186</v>
       </c>
       <c r="I36" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4540854883441</v>
       </c>
       <c r="J36" t="n">
-        <v>100.4973517299579</v>
+        <v>98.35185998134867</v>
       </c>
       <c r="K36" t="n">
-        <v>43.48154656593752</v>
+        <v>39.81455943866638</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.77581017613943</v>
+        <v>81.8770407665705</v>
       </c>
       <c r="R36" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9135208004222</v>
       </c>
       <c r="S36" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5364288523852</v>
       </c>
       <c r="T36" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1223324772803</v>
       </c>
       <c r="U36" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9714696252922</v>
       </c>
       <c r="V36" t="n">
         <v>255.0969898936781</v>
@@ -25324,49 +25326,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>169.5885590376112</v>
+        <v>169.5695206702212</v>
       </c>
       <c r="H37" t="n">
-        <v>168.7222936344755</v>
+        <v>168.553025240772</v>
       </c>
       <c r="I37" t="n">
-        <v>169.5650886648345</v>
+        <v>168.992553034598</v>
       </c>
       <c r="J37" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7628484707558</v>
       </c>
       <c r="K37" t="n">
-        <v>100.7631485409216</v>
+        <v>98.55123640234183</v>
       </c>
       <c r="L37" t="n">
-        <v>79.85433933586287</v>
+        <v>77.02385333317633</v>
       </c>
       <c r="M37" t="n">
-        <v>78.84701260891001</v>
+        <v>75.86266198249908</v>
       </c>
       <c r="N37" t="n">
-        <v>64.0747527422576</v>
+        <v>61.16136330339108</v>
       </c>
       <c r="O37" t="n">
-        <v>92.52559636191177</v>
+        <v>89.83460966937352</v>
       </c>
       <c r="P37" t="n">
-        <v>110.4602209616816</v>
+        <v>108.1576169638986</v>
       </c>
       <c r="Q37" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1252925040833</v>
       </c>
       <c r="R37" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8543828110549</v>
       </c>
       <c r="S37" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8320787069986</v>
       </c>
       <c r="T37" t="n">
-        <v>214.2693564029072</v>
+        <v>214.188010651332</v>
       </c>
       <c r="U37" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358460705017</v>
       </c>
       <c r="V37" t="n">
         <v>232.1699497460494</v>
@@ -25403,49 +25405,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G38" t="n">
-        <v>424.412755955792</v>
+        <v>424.3703131815284</v>
       </c>
       <c r="H38" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9157199772197</v>
       </c>
       <c r="I38" t="n">
-        <v>261.2182975345403</v>
+        <v>259.5820224797425</v>
       </c>
       <c r="J38" t="n">
-        <v>116.87419793854</v>
+        <v>113.2719205263841</v>
       </c>
       <c r="K38" t="n">
-        <v>91.88120483615114</v>
+        <v>86.48232478941668</v>
       </c>
       <c r="L38" t="n">
-        <v>53.41568553442607</v>
+        <v>46.71789743482168</v>
       </c>
       <c r="M38" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>21.88868639101628</v>
+        <v>14.7375564088087</v>
       </c>
       <c r="P38" t="n">
-        <v>75.31191812490522</v>
+        <v>69.20859413233046</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.6275415645501</v>
+        <v>131.0441994252908</v>
       </c>
       <c r="R38" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4193954842993</v>
       </c>
       <c r="S38" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3212844932483</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0325233056941</v>
       </c>
       <c r="U38" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8723480208417</v>
       </c>
       <c r="V38" t="n">
         <v>308.2281821605244</v>
@@ -25482,19 +25484,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>169.2333254433287</v>
+        <v>169.21061655708</v>
       </c>
       <c r="H39" t="n">
-        <v>145.7624330852993</v>
+        <v>145.5431130523186</v>
       </c>
       <c r="I39" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4540854883441</v>
       </c>
       <c r="J39" t="n">
-        <v>100.4973517299579</v>
+        <v>98.35185998134867</v>
       </c>
       <c r="K39" t="n">
-        <v>43.48154656593752</v>
+        <v>39.81455943866638</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.77581017613943</v>
+        <v>81.8770407665705</v>
       </c>
       <c r="R39" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9135208004222</v>
       </c>
       <c r="S39" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5364288523852</v>
       </c>
       <c r="T39" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1223324772803</v>
       </c>
       <c r="U39" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9714696252922</v>
       </c>
       <c r="V39" t="n">
         <v>255.0969898936781</v>
@@ -25561,49 +25563,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>169.5885590376112</v>
+        <v>169.5695206702212</v>
       </c>
       <c r="H40" t="n">
-        <v>168.7222936344755</v>
+        <v>168.553025240772</v>
       </c>
       <c r="I40" t="n">
-        <v>169.5650886648345</v>
+        <v>168.992553034598</v>
       </c>
       <c r="J40" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7628484707558</v>
       </c>
       <c r="K40" t="n">
-        <v>100.7631485409216</v>
+        <v>98.55123640234183</v>
       </c>
       <c r="L40" t="n">
-        <v>79.85433933586287</v>
+        <v>77.02385333317633</v>
       </c>
       <c r="M40" t="n">
-        <v>78.84701260891001</v>
+        <v>75.86266198249908</v>
       </c>
       <c r="N40" t="n">
-        <v>64.0747527422576</v>
+        <v>61.16136330339108</v>
       </c>
       <c r="O40" t="n">
-        <v>92.52559636191177</v>
+        <v>89.83460966937352</v>
       </c>
       <c r="P40" t="n">
-        <v>110.4602209616816</v>
+        <v>108.1576169638986</v>
       </c>
       <c r="Q40" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1252925040833</v>
       </c>
       <c r="R40" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8543828110549</v>
       </c>
       <c r="S40" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8320787069986</v>
       </c>
       <c r="T40" t="n">
-        <v>214.2693564029072</v>
+        <v>214.188010651332</v>
       </c>
       <c r="U40" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358460705017</v>
       </c>
       <c r="V40" t="n">
         <v>232.1699497460494</v>
@@ -25640,49 +25642,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>424.412755955792</v>
+        <v>424.3703131815284</v>
       </c>
       <c r="H41" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9157199772197</v>
       </c>
       <c r="I41" t="n">
-        <v>261.2182975345403</v>
+        <v>259.5820224797425</v>
       </c>
       <c r="J41" t="n">
-        <v>116.87419793854</v>
+        <v>113.2719205263841</v>
       </c>
       <c r="K41" t="n">
-        <v>91.88120483615114</v>
+        <v>86.48232478941668</v>
       </c>
       <c r="L41" t="n">
-        <v>53.41568553442607</v>
+        <v>46.71789743482168</v>
       </c>
       <c r="M41" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>21.88868639101628</v>
+        <v>14.7375564088087</v>
       </c>
       <c r="P41" t="n">
-        <v>75.31191812490522</v>
+        <v>69.20859413233046</v>
       </c>
       <c r="Q41" t="n">
-        <v>135.6275415645501</v>
+        <v>131.0441994252908</v>
       </c>
       <c r="R41" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4193954842993</v>
       </c>
       <c r="S41" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3212844932483</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0325233056941</v>
       </c>
       <c r="U41" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8723480208417</v>
       </c>
       <c r="V41" t="n">
         <v>308.2281821605244</v>
@@ -25719,19 +25721,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>169.2333254433287</v>
+        <v>169.21061655708</v>
       </c>
       <c r="H42" t="n">
-        <v>145.7624330852993</v>
+        <v>145.5431130523186</v>
       </c>
       <c r="I42" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4540854883441</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4973517299579</v>
+        <v>98.35185998134867</v>
       </c>
       <c r="K42" t="n">
-        <v>43.48154656593752</v>
+        <v>39.81455943866638</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.77581017613943</v>
+        <v>81.8770407665705</v>
       </c>
       <c r="R42" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9135208004222</v>
       </c>
       <c r="S42" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5364288523852</v>
       </c>
       <c r="T42" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1223324772803</v>
       </c>
       <c r="U42" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9714696252922</v>
       </c>
       <c r="V42" t="n">
         <v>255.0969898936781</v>
@@ -25798,49 +25800,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>169.5885590376112</v>
+        <v>169.5695206702212</v>
       </c>
       <c r="H43" t="n">
-        <v>168.7222936344755</v>
+        <v>168.553025240772</v>
       </c>
       <c r="I43" t="n">
-        <v>169.5650886648345</v>
+        <v>168.992553034598</v>
       </c>
       <c r="J43" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7628484707558</v>
       </c>
       <c r="K43" t="n">
-        <v>100.7631485409216</v>
+        <v>98.55123640234183</v>
       </c>
       <c r="L43" t="n">
-        <v>79.85433933586287</v>
+        <v>77.02385333317633</v>
       </c>
       <c r="M43" t="n">
-        <v>78.84701260891001</v>
+        <v>75.86266198249908</v>
       </c>
       <c r="N43" t="n">
-        <v>64.0747527422576</v>
+        <v>61.16136330339108</v>
       </c>
       <c r="O43" t="n">
-        <v>92.52559636191177</v>
+        <v>89.83460966937352</v>
       </c>
       <c r="P43" t="n">
-        <v>110.4602209616816</v>
+        <v>108.1576169638986</v>
       </c>
       <c r="Q43" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1252925040833</v>
       </c>
       <c r="R43" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8543828110549</v>
       </c>
       <c r="S43" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8320787069986</v>
       </c>
       <c r="T43" t="n">
-        <v>214.2693564029072</v>
+        <v>214.188010651332</v>
       </c>
       <c r="U43" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358460705017</v>
       </c>
       <c r="V43" t="n">
         <v>232.1699497460494</v>
@@ -25877,49 +25879,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>424.412755955792</v>
+        <v>424.3703131815284</v>
       </c>
       <c r="H44" t="n">
-        <v>351.3503870391469</v>
+        <v>350.9157199772197</v>
       </c>
       <c r="I44" t="n">
-        <v>261.2182975345403</v>
+        <v>259.5820224797425</v>
       </c>
       <c r="J44" t="n">
-        <v>116.87419793854</v>
+        <v>113.2719205263841</v>
       </c>
       <c r="K44" t="n">
-        <v>91.88120483615114</v>
+        <v>86.48232478941668</v>
       </c>
       <c r="L44" t="n">
-        <v>53.41568553442607</v>
+        <v>46.71789743482168</v>
       </c>
       <c r="M44" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>21.88868639101628</v>
+        <v>14.7375564088087</v>
       </c>
       <c r="P44" t="n">
-        <v>75.31191812490522</v>
+        <v>69.20859413233046</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.6275415645501</v>
+        <v>131.0441994252908</v>
       </c>
       <c r="R44" t="n">
-        <v>219.0854914031357</v>
+        <v>216.4193954842993</v>
       </c>
       <c r="S44" t="n">
-        <v>240.2884492117802</v>
+        <v>239.3212844932483</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2183165500331</v>
+        <v>217.0325233056941</v>
       </c>
       <c r="U44" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8723480208417</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25956,19 +25958,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>169.2333254433287</v>
+        <v>169.21061655708</v>
       </c>
       <c r="H45" t="n">
-        <v>145.7624330852993</v>
+        <v>145.5431130523186</v>
       </c>
       <c r="I45" t="n">
-        <v>123.2359484578712</v>
+        <v>122.4540854883441</v>
       </c>
       <c r="J45" t="n">
-        <v>100.4973517299579</v>
+        <v>98.35185998134867</v>
       </c>
       <c r="K45" t="n">
-        <v>43.48154656593752</v>
+        <v>39.81455943866638</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.77581017613943</v>
+        <v>81.8770407665705</v>
       </c>
       <c r="R45" t="n">
-        <v>167.3234637554063</v>
+        <v>165.9135208004222</v>
       </c>
       <c r="S45" t="n">
-        <v>218.9582364544167</v>
+        <v>218.5364288523852</v>
       </c>
       <c r="T45" t="n">
-        <v>240.2138652249231</v>
+        <v>240.1223324772803</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9729636309664</v>
+        <v>257.9714696252922</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26035,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>169.5885590376112</v>
+        <v>169.5695206702212</v>
       </c>
       <c r="H46" t="n">
-        <v>168.7222936344755</v>
+        <v>168.553025240772</v>
       </c>
       <c r="I46" t="n">
-        <v>169.5650886648345</v>
+        <v>168.992553034598</v>
       </c>
       <c r="J46" t="n">
-        <v>140.1088610452264</v>
+        <v>138.7628484707558</v>
       </c>
       <c r="K46" t="n">
-        <v>100.7631485409216</v>
+        <v>98.55123640234183</v>
       </c>
       <c r="L46" t="n">
-        <v>79.85433933586287</v>
+        <v>77.02385333317633</v>
       </c>
       <c r="M46" t="n">
-        <v>78.84701260891001</v>
+        <v>75.86266198249908</v>
       </c>
       <c r="N46" t="n">
-        <v>64.0747527422576</v>
+        <v>61.16136330339108</v>
       </c>
       <c r="O46" t="n">
-        <v>92.52559636191177</v>
+        <v>89.83460966937352</v>
       </c>
       <c r="P46" t="n">
-        <v>110.4602209616816</v>
+        <v>108.1576169638986</v>
       </c>
       <c r="Q46" t="n">
-        <v>167.7194961588923</v>
+        <v>166.1252925040833</v>
       </c>
       <c r="R46" t="n">
-        <v>232.7104170393347</v>
+        <v>231.8543828110549</v>
       </c>
       <c r="S46" t="n">
-        <v>249.1638655277856</v>
+        <v>248.8320787069986</v>
       </c>
       <c r="T46" t="n">
-        <v>214.2693564029072</v>
+        <v>214.188010651332</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9358460705017</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>233675.4290159262</v>
+        <v>240078.0855115834</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>418289.1967091979</v>
+        <v>424919.4987589619</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>418289.1967091979</v>
+        <v>424919.4987589619</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>418289.1967091979</v>
+        <v>424919.4987589619</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>418289.1967091979</v>
+        <v>424919.4987589619</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>418289.1967091979</v>
+        <v>424919.4987589619</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>418289.1967091979</v>
+        <v>424919.4987589619</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>418289.1967091979</v>
+        <v>424919.4987589619</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>418289.1967091979</v>
+        <v>424919.4987589619</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>418289.1967091979</v>
+        <v>424919.4987589619</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>418289.1967091979</v>
+        <v>424919.4987589619</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418289.1967091979</v>
+        <v>424919.4987589619</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418289.1967091979</v>
+        <v>424919.4987589619</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69237.16415286706</v>
+        <v>71134.24755898771</v>
       </c>
       <c r="C2" t="n">
         <v>93240.75063988265</v>
@@ -26320,40 +26322,40 @@
         <v>103171.7950954278</v>
       </c>
       <c r="E2" t="n">
-        <v>123937.5397656883</v>
+        <v>125902.0737063591</v>
       </c>
       <c r="F2" t="n">
-        <v>123937.5397656883</v>
+        <v>125902.0737063591</v>
       </c>
       <c r="G2" t="n">
-        <v>123937.5397656883</v>
+        <v>125902.0737063591</v>
       </c>
       <c r="H2" t="n">
-        <v>123937.5397656883</v>
+        <v>125902.0737063591</v>
       </c>
       <c r="I2" t="n">
-        <v>123937.5397656883</v>
+        <v>125902.0737063591</v>
       </c>
       <c r="J2" t="n">
-        <v>123937.5397656883</v>
+        <v>125902.0737063591</v>
       </c>
       <c r="K2" t="n">
-        <v>123937.5397656883</v>
+        <v>125902.0737063591</v>
       </c>
       <c r="L2" t="n">
-        <v>123937.5397656883</v>
+        <v>125902.0737063591</v>
       </c>
       <c r="M2" t="n">
-        <v>123937.5397656883</v>
+        <v>125902.0737063591</v>
       </c>
       <c r="N2" t="n">
-        <v>123937.5397656883</v>
+        <v>125902.0737063591</v>
       </c>
       <c r="O2" t="n">
-        <v>123937.5397656883</v>
+        <v>125902.0737063591</v>
       </c>
       <c r="P2" t="n">
-        <v>123937.5397656883</v>
+        <v>125902.0737063591</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>272992.4869025886</v>
+        <v>280472.4223279489</v>
       </c>
       <c r="C3" t="n">
-        <v>89436.23518044449</v>
+        <v>82367.79156438293</v>
       </c>
       <c r="D3" t="n">
         <v>36206.25146095255</v>
       </c>
       <c r="E3" t="n">
-        <v>77058.67368432044</v>
+        <v>85540.7134120323</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39803.56090388614</v>
+        <v>39972.78090431458</v>
       </c>
       <c r="C5" t="n">
         <v>41944.68285061335</v>
@@ -26476,40 +26478,40 @@
         <v>42866.31220493119</v>
       </c>
       <c r="E5" t="n">
-        <v>11329.66666529316</v>
+        <v>11559.82321943114</v>
       </c>
       <c r="F5" t="n">
-        <v>11329.66666529316</v>
+        <v>11559.82321943114</v>
       </c>
       <c r="G5" t="n">
-        <v>11329.66666529316</v>
+        <v>11559.82321943114</v>
       </c>
       <c r="H5" t="n">
-        <v>11329.66666529316</v>
+        <v>11559.82321943114</v>
       </c>
       <c r="I5" t="n">
-        <v>11329.66666529316</v>
+        <v>11559.82321943114</v>
       </c>
       <c r="J5" t="n">
-        <v>11329.66666529316</v>
+        <v>11559.82321943114</v>
       </c>
       <c r="K5" t="n">
-        <v>11329.66666529316</v>
+        <v>11559.82321943114</v>
       </c>
       <c r="L5" t="n">
-        <v>11329.66666529316</v>
+        <v>11559.82321943114</v>
       </c>
       <c r="M5" t="n">
-        <v>11329.66666529316</v>
+        <v>11559.82321943114</v>
       </c>
       <c r="N5" t="n">
-        <v>11329.66666529316</v>
+        <v>11559.82321943114</v>
       </c>
       <c r="O5" t="n">
-        <v>11329.66666529316</v>
+        <v>11559.82321943114</v>
       </c>
       <c r="P5" t="n">
-        <v>11329.66666529316</v>
+        <v>11559.82321943114</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243558.8836536077</v>
+        <v>-249310.9556732757</v>
       </c>
       <c r="C6" t="n">
-        <v>-38140.16739117519</v>
+        <v>-31071.72377511363</v>
       </c>
       <c r="D6" t="n">
         <v>24099.23142954407</v>
       </c>
       <c r="E6" t="n">
-        <v>35549.19941607473</v>
+        <v>28801.53707489563</v>
       </c>
       <c r="F6" t="n">
-        <v>112607.8731003952</v>
+        <v>114342.2504869279</v>
       </c>
       <c r="G6" t="n">
-        <v>112607.8731003952</v>
+        <v>114342.2504869279</v>
       </c>
       <c r="H6" t="n">
-        <v>112607.8731003952</v>
+        <v>114342.2504869279</v>
       </c>
       <c r="I6" t="n">
-        <v>112607.8731003952</v>
+        <v>114342.2504869279</v>
       </c>
       <c r="J6" t="n">
-        <v>112607.8731003952</v>
+        <v>114342.2504869279</v>
       </c>
       <c r="K6" t="n">
-        <v>112607.8731003952</v>
+        <v>114342.2504869279</v>
       </c>
       <c r="L6" t="n">
-        <v>112607.8731003952</v>
+        <v>114342.2504869279</v>
       </c>
       <c r="M6" t="n">
-        <v>112607.8731003952</v>
+        <v>114342.2504869279</v>
       </c>
       <c r="N6" t="n">
-        <v>112607.8731003952</v>
+        <v>114342.2504869279</v>
       </c>
       <c r="O6" t="n">
-        <v>112607.8731003952</v>
+        <v>114342.2504869279</v>
       </c>
       <c r="P6" t="n">
-        <v>112607.8731003952</v>
+        <v>114342.2504869279</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>283.3009588938595</v>
+        <v>291.0633442346137</v>
       </c>
       <c r="C3" t="n">
         <v>381.5175619547406</v>
@@ -26744,40 +26746,40 @@
         <v>423.7941378408804</v>
       </c>
       <c r="E3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.2671201573919</v>
       </c>
       <c r="F3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.2671201573919</v>
       </c>
       <c r="G3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.2671201573919</v>
       </c>
       <c r="H3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.2671201573919</v>
       </c>
       <c r="I3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.2671201573919</v>
       </c>
       <c r="J3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.2671201573919</v>
       </c>
       <c r="K3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.2671201573919</v>
       </c>
       <c r="L3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.2671201573919</v>
       </c>
       <c r="M3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.2671201573919</v>
       </c>
       <c r="N3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.2671201573919</v>
       </c>
       <c r="O3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.2671201573919</v>
       </c>
       <c r="P3" t="n">
-        <v>519.7094800593193</v>
+        <v>530.2671201573919</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>283.3009588938595</v>
+        <v>291.0633442346137</v>
       </c>
       <c r="C3" t="n">
-        <v>98.21660306088114</v>
+        <v>90.45421772012683</v>
       </c>
       <c r="D3" t="n">
         <v>42.27657588613982</v>
       </c>
       <c r="E3" t="n">
-        <v>95.91534221843887</v>
+        <v>106.4729823165115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.138898327211495</v>
+        <v>1.170103896420557</v>
       </c>
       <c r="H2" t="n">
-        <v>11.66374249355472</v>
+        <v>11.98332652921703</v>
       </c>
       <c r="I2" t="n">
-        <v>43.90737775982119</v>
+        <v>45.11043046675356</v>
       </c>
       <c r="J2" t="n">
-        <v>96.66257189916668</v>
+        <v>99.31110557882432</v>
       </c>
       <c r="K2" t="n">
-        <v>144.8721380900293</v>
+        <v>148.8416035143065</v>
       </c>
       <c r="L2" t="n">
-        <v>179.7266977714281</v>
+        <v>184.6511706343872</v>
       </c>
       <c r="M2" t="n">
-        <v>199.9805808979755</v>
+        <v>205.4600058023562</v>
       </c>
       <c r="N2" t="n">
-        <v>203.2164757701652</v>
+        <v>208.7845634980612</v>
       </c>
       <c r="O2" t="n">
-        <v>191.8915555289559</v>
+        <v>197.1493428780292</v>
       </c>
       <c r="P2" t="n">
-        <v>163.7750030759221</v>
+        <v>168.2624029351467</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.9882067326604</v>
+        <v>126.3580571445855</v>
       </c>
       <c r="R2" t="n">
-        <v>71.54132204669911</v>
+        <v>73.50153888352787</v>
       </c>
       <c r="S2" t="n">
-        <v>25.95264563133196</v>
+        <v>26.66374253968347</v>
       </c>
       <c r="T2" t="n">
-        <v>4.985527427368321</v>
+        <v>5.122129806580991</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09111186617691955</v>
+        <v>0.09360831171364453</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6093643266773582</v>
+        <v>0.6260607781650183</v>
       </c>
       <c r="H3" t="n">
-        <v>5.885176523436592</v>
+        <v>6.046429094383203</v>
       </c>
       <c r="I3" t="n">
-        <v>20.98030686147922</v>
+        <v>21.55516275699734</v>
       </c>
       <c r="J3" t="n">
-        <v>57.57156561823235</v>
+        <v>59.1490141335643</v>
       </c>
       <c r="K3" t="n">
-        <v>98.39897550561534</v>
+        <v>101.0950862706205</v>
       </c>
       <c r="L3" t="n">
-        <v>132.3095657550992</v>
+        <v>135.9348193993826</v>
       </c>
       <c r="M3" t="n">
-        <v>154.3990225971534</v>
+        <v>158.6295226078645</v>
       </c>
       <c r="N3" t="n">
-        <v>158.4855052966696</v>
+        <v>162.8279740544185</v>
       </c>
       <c r="O3" t="n">
-        <v>144.983274689766</v>
+        <v>148.9557852329726</v>
       </c>
       <c r="P3" t="n">
-        <v>116.3618598898194</v>
+        <v>119.5501498234586</v>
       </c>
       <c r="Q3" t="n">
-        <v>77.78482177025366</v>
+        <v>79.91610915664339</v>
       </c>
       <c r="R3" t="n">
-        <v>37.83404126510827</v>
+        <v>38.87068585835088</v>
       </c>
       <c r="S3" t="n">
-        <v>11.31867510297636</v>
+        <v>11.62880436635461</v>
       </c>
       <c r="T3" t="n">
-        <v>2.456165860598649</v>
+        <v>2.523464276901981</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04008975833403674</v>
+        <v>0.04118820908980385</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5108705816118777</v>
+        <v>0.5248683256689756</v>
       </c>
       <c r="H4" t="n">
-        <v>4.542103898331062</v>
+        <v>4.666556568220531</v>
       </c>
       <c r="I4" t="n">
-        <v>15.36327167247356</v>
+        <v>15.78422201193611</v>
       </c>
       <c r="J4" t="n">
-        <v>36.11855011995976</v>
+        <v>37.10819062479657</v>
       </c>
       <c r="K4" t="n">
-        <v>59.35387302727087</v>
+        <v>60.98015638226823</v>
       </c>
       <c r="L4" t="n">
-        <v>75.95252265164227</v>
+        <v>78.03360543627662</v>
       </c>
       <c r="M4" t="n">
-        <v>80.08128580666916</v>
+        <v>82.27549581372858</v>
       </c>
       <c r="N4" t="n">
-        <v>78.1771318206613</v>
+        <v>80.31916841805338</v>
       </c>
       <c r="O4" t="n">
-        <v>72.20923457183162</v>
+        <v>74.18775206819305</v>
       </c>
       <c r="P4" t="n">
-        <v>61.78747470694926</v>
+        <v>63.48043822454589</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.77844479297278</v>
+        <v>43.95056497942667</v>
       </c>
       <c r="R4" t="n">
-        <v>22.97059906047588</v>
+        <v>23.59998853417047</v>
       </c>
       <c r="S4" t="n">
-        <v>8.90308095409063</v>
+        <v>9.147023457340234</v>
       </c>
       <c r="T4" t="n">
-        <v>2.182810666887113</v>
+        <v>2.242619209676531</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02786566808792064</v>
+        <v>0.02862918140012597</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08928434194701</v>
+        <v>2.131727116210619</v>
       </c>
       <c r="H11" t="n">
-        <v>21.39688326696483</v>
+        <v>21.83155032889201</v>
       </c>
       <c r="I11" t="n">
-        <v>80.5471345929122</v>
+        <v>82.18340964770998</v>
       </c>
       <c r="J11" t="n">
-        <v>177.3253969173253</v>
+        <v>180.9276743294812</v>
       </c>
       <c r="K11" t="n">
-        <v>265.7648031119423</v>
+        <v>271.1636831586767</v>
       </c>
       <c r="L11" t="n">
-        <v>329.7047387918032</v>
+        <v>336.4025268914075</v>
       </c>
       <c r="M11" t="n">
-        <v>366.8600492079033</v>
+        <v>374.3126289943181</v>
       </c>
       <c r="N11" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>352.0209071692246</v>
+        <v>359.1720371514322</v>
       </c>
       <c r="P11" t="n">
-        <v>300.4416999774078</v>
+        <v>306.5450239699825</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.6192044814304</v>
+        <v>230.2025466206896</v>
       </c>
       <c r="R11" t="n">
-        <v>131.241007544829</v>
+        <v>133.9071034636654</v>
       </c>
       <c r="S11" t="n">
-        <v>47.60956694211755</v>
+        <v>48.57673166064953</v>
       </c>
       <c r="T11" t="n">
-        <v>9.145842206873043</v>
+        <v>9.331635451211989</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1705381692968495</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140574560338541</v>
       </c>
       <c r="H12" t="n">
-        <v>10.79622901028888</v>
+        <v>11.0155490432696</v>
       </c>
       <c r="I12" t="n">
-        <v>38.48791904212884</v>
+        <v>39.26978201165591</v>
       </c>
       <c r="J12" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7592833519847</v>
       </c>
       <c r="K12" t="n">
-        <v>180.5107917673958</v>
+        <v>184.177778894667</v>
       </c>
       <c r="L12" t="n">
         <v>225.1508671422956</v>
@@ -31856,22 +31858,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5933421232145</v>
       </c>
       <c r="R12" t="n">
-        <v>69.40573018603516</v>
+        <v>70.81567314101927</v>
       </c>
       <c r="S12" t="n">
-        <v>20.76386460425675</v>
+        <v>21.18567220628824</v>
       </c>
       <c r="T12" t="n">
-        <v>4.505783133721833</v>
+        <v>4.597315881364556</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07503780002227248</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9562193970051328</v>
       </c>
       <c r="H13" t="n">
-        <v>8.332391336033025</v>
+        <v>8.50165972973655</v>
       </c>
       <c r="I13" t="n">
-        <v>28.18358950879063</v>
+        <v>28.75612513902709</v>
       </c>
       <c r="J13" t="n">
-        <v>66.25869879379222</v>
+        <v>67.60471136826288</v>
       </c>
       <c r="K13" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0953081247781</v>
       </c>
       <c r="L13" t="n">
-        <v>139.3332596211493</v>
+        <v>142.1637456238359</v>
       </c>
       <c r="M13" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8917369323591</v>
       </c>
       <c r="N13" t="n">
-        <v>143.4142570137463</v>
+        <v>146.3276464526128</v>
       </c>
       <c r="O13" t="n">
-        <v>132.4662786223328</v>
+        <v>135.157265314871</v>
       </c>
       <c r="P13" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6503896159662</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.47613148895721</v>
+        <v>80.07033514376617</v>
       </c>
       <c r="R13" t="n">
-        <v>42.13906702251462</v>
+        <v>42.99510125079442</v>
       </c>
       <c r="S13" t="n">
-        <v>16.33250939792975</v>
+        <v>16.66429621871672</v>
       </c>
       <c r="T13" t="n">
-        <v>4.004318944719344</v>
+        <v>4.085664696294657</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05215742165482549</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.08928434194701</v>
+        <v>2.131727116210619</v>
       </c>
       <c r="H14" t="n">
-        <v>21.39688326696483</v>
+        <v>21.83155032889201</v>
       </c>
       <c r="I14" t="n">
-        <v>80.5471345929122</v>
+        <v>82.18340964770998</v>
       </c>
       <c r="J14" t="n">
-        <v>177.3253969173253</v>
+        <v>180.9276743294812</v>
       </c>
       <c r="K14" t="n">
-        <v>265.7648031119423</v>
+        <v>271.1636831586767</v>
       </c>
       <c r="L14" t="n">
-        <v>329.7047387918032</v>
+        <v>336.4025268914075</v>
       </c>
       <c r="M14" t="n">
-        <v>366.8600492079033</v>
+        <v>374.3126289943181</v>
       </c>
       <c r="N14" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>352.0209071692246</v>
+        <v>359.1720371514322</v>
       </c>
       <c r="P14" t="n">
-        <v>300.4416999774078</v>
+        <v>306.5450239699825</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.6192044814304</v>
+        <v>230.2025466206896</v>
       </c>
       <c r="R14" t="n">
-        <v>131.241007544829</v>
+        <v>133.9071034636654</v>
       </c>
       <c r="S14" t="n">
-        <v>47.60956694211755</v>
+        <v>48.57673166064953</v>
       </c>
       <c r="T14" t="n">
-        <v>9.145842206873043</v>
+        <v>9.331635451211989</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1705381692968495</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140574560338541</v>
       </c>
       <c r="H15" t="n">
-        <v>10.79622901028888</v>
+        <v>11.0155490432696</v>
       </c>
       <c r="I15" t="n">
-        <v>38.48791904212884</v>
+        <v>39.26978201165591</v>
       </c>
       <c r="J15" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7592833519847</v>
       </c>
       <c r="K15" t="n">
-        <v>180.5107917673958</v>
+        <v>184.177778894667</v>
       </c>
       <c r="L15" t="n">
         <v>225.1508671422956</v>
@@ -32093,22 +32095,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5933421232145</v>
       </c>
       <c r="R15" t="n">
-        <v>69.40573018603516</v>
+        <v>70.81567314101927</v>
       </c>
       <c r="S15" t="n">
-        <v>20.76386460425675</v>
+        <v>21.18567220628824</v>
       </c>
       <c r="T15" t="n">
-        <v>4.505783133721833</v>
+        <v>4.597315881364556</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07503780002227248</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9562193970051328</v>
       </c>
       <c r="H16" t="n">
-        <v>8.332391336033025</v>
+        <v>8.50165972973655</v>
       </c>
       <c r="I16" t="n">
-        <v>28.18358950879063</v>
+        <v>28.75612513902709</v>
       </c>
       <c r="J16" t="n">
-        <v>66.25869879379222</v>
+        <v>67.60471136826288</v>
       </c>
       <c r="K16" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0953081247781</v>
       </c>
       <c r="L16" t="n">
-        <v>139.3332596211493</v>
+        <v>142.1637456238359</v>
       </c>
       <c r="M16" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8917369323591</v>
       </c>
       <c r="N16" t="n">
-        <v>143.4142570137463</v>
+        <v>146.3276464526128</v>
       </c>
       <c r="O16" t="n">
-        <v>132.4662786223328</v>
+        <v>135.157265314871</v>
       </c>
       <c r="P16" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6503896159662</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.47613148895721</v>
+        <v>80.07033514376617</v>
       </c>
       <c r="R16" t="n">
-        <v>42.13906702251462</v>
+        <v>42.99510125079442</v>
       </c>
       <c r="S16" t="n">
-        <v>16.33250939792975</v>
+        <v>16.66429621871672</v>
       </c>
       <c r="T16" t="n">
-        <v>4.004318944719344</v>
+        <v>4.085664696294657</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05215742165482549</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.08928434194701</v>
+        <v>2.131727116210619</v>
       </c>
       <c r="H17" t="n">
-        <v>21.39688326696482</v>
+        <v>21.83155032889201</v>
       </c>
       <c r="I17" t="n">
-        <v>80.5471345929122</v>
+        <v>82.18340964770998</v>
       </c>
       <c r="J17" t="n">
-        <v>177.3253969173252</v>
+        <v>180.9276743294812</v>
       </c>
       <c r="K17" t="n">
-        <v>265.7648031119422</v>
+        <v>271.1636831586767</v>
       </c>
       <c r="L17" t="n">
-        <v>329.7047387918032</v>
+        <v>336.4025268914075</v>
       </c>
       <c r="M17" t="n">
-        <v>366.8600492079033</v>
+        <v>374.3126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>352.0209071692246</v>
+        <v>359.1720371514322</v>
       </c>
       <c r="P17" t="n">
-        <v>300.4416999774078</v>
+        <v>306.5450239699825</v>
       </c>
       <c r="Q17" t="n">
-        <v>225.6192044814304</v>
+        <v>230.2025466206896</v>
       </c>
       <c r="R17" t="n">
-        <v>131.241007544829</v>
+        <v>133.9071034636654</v>
       </c>
       <c r="S17" t="n">
-        <v>47.60956694211755</v>
+        <v>48.57673166064953</v>
       </c>
       <c r="T17" t="n">
-        <v>9.145842206873043</v>
+        <v>9.331635451211989</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1705381692968495</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140574560338541</v>
       </c>
       <c r="H18" t="n">
-        <v>10.79622901028888</v>
+        <v>11.0155490432696</v>
       </c>
       <c r="I18" t="n">
-        <v>38.48791904212884</v>
+        <v>39.26978201165591</v>
       </c>
       <c r="J18" t="n">
-        <v>105.6137916033754</v>
+        <v>107.7592833519847</v>
       </c>
       <c r="K18" t="n">
-        <v>180.5107917673958</v>
+        <v>184.177778894667</v>
       </c>
       <c r="L18" t="n">
         <v>225.1508671422956</v>
@@ -32330,22 +32332,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5933421232145</v>
       </c>
       <c r="R18" t="n">
-        <v>69.40573018603516</v>
+        <v>70.81567314101927</v>
       </c>
       <c r="S18" t="n">
-        <v>20.76386460425675</v>
+        <v>21.18567220628824</v>
       </c>
       <c r="T18" t="n">
-        <v>4.505783133721833</v>
+        <v>4.597315881364556</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0735437943480169</v>
+        <v>0.07503780002227248</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9562193970051328</v>
       </c>
       <c r="H19" t="n">
-        <v>8.332391336033027</v>
+        <v>8.50165972973655</v>
       </c>
       <c r="I19" t="n">
-        <v>28.18358950879063</v>
+        <v>28.75612513902709</v>
       </c>
       <c r="J19" t="n">
-        <v>66.25869879379222</v>
+        <v>67.60471136826288</v>
       </c>
       <c r="K19" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0953081247781</v>
       </c>
       <c r="L19" t="n">
-        <v>139.3332596211493</v>
+        <v>142.1637456238359</v>
       </c>
       <c r="M19" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8917369323591</v>
       </c>
       <c r="N19" t="n">
-        <v>143.4142570137463</v>
+        <v>146.3276464526128</v>
       </c>
       <c r="O19" t="n">
-        <v>132.4662786223328</v>
+        <v>135.157265314871</v>
       </c>
       <c r="P19" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6503896159662</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.47613148895721</v>
+        <v>80.07033514376617</v>
       </c>
       <c r="R19" t="n">
-        <v>42.13906702251462</v>
+        <v>42.99510125079442</v>
       </c>
       <c r="S19" t="n">
-        <v>16.33250939792974</v>
+        <v>16.66429621871672</v>
       </c>
       <c r="T19" t="n">
-        <v>4.004318944719343</v>
+        <v>4.085664696294657</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05215742165482549</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.08928434194701</v>
+        <v>2.131727116210619</v>
       </c>
       <c r="H20" t="n">
-        <v>21.39688326696483</v>
+        <v>21.83155032889201</v>
       </c>
       <c r="I20" t="n">
-        <v>80.5471345929122</v>
+        <v>82.18340964770998</v>
       </c>
       <c r="J20" t="n">
-        <v>177.3253969173253</v>
+        <v>180.9276743294812</v>
       </c>
       <c r="K20" t="n">
-        <v>265.7648031119423</v>
+        <v>271.1636831586767</v>
       </c>
       <c r="L20" t="n">
-        <v>329.7047387918032</v>
+        <v>336.4025268914075</v>
       </c>
       <c r="M20" t="n">
-        <v>366.8600492079033</v>
+        <v>374.3126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>352.0209071692246</v>
+        <v>359.1720371514322</v>
       </c>
       <c r="P20" t="n">
-        <v>300.4416999774078</v>
+        <v>306.5450239699825</v>
       </c>
       <c r="Q20" t="n">
-        <v>225.6192044814304</v>
+        <v>230.2025466206896</v>
       </c>
       <c r="R20" t="n">
-        <v>131.241007544829</v>
+        <v>133.9071034636654</v>
       </c>
       <c r="S20" t="n">
-        <v>47.60956694211755</v>
+        <v>48.57673166064953</v>
       </c>
       <c r="T20" t="n">
-        <v>9.145842206873043</v>
+        <v>9.331635451211989</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1705381692968495</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140574560338541</v>
       </c>
       <c r="H21" t="n">
-        <v>10.79622901028888</v>
+        <v>11.0155490432696</v>
       </c>
       <c r="I21" t="n">
-        <v>38.48791904212884</v>
+        <v>39.26978201165591</v>
       </c>
       <c r="J21" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7592833519847</v>
       </c>
       <c r="K21" t="n">
-        <v>180.5107917673958</v>
+        <v>184.177778894667</v>
       </c>
       <c r="L21" t="n">
         <v>225.1508671422956</v>
@@ -32567,22 +32569,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5933421232145</v>
       </c>
       <c r="R21" t="n">
-        <v>69.40573018603516</v>
+        <v>70.81567314101927</v>
       </c>
       <c r="S21" t="n">
-        <v>20.76386460425675</v>
+        <v>21.18567220628824</v>
       </c>
       <c r="T21" t="n">
-        <v>4.505783133721833</v>
+        <v>4.597315881364556</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07503780002227248</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9562193970051328</v>
       </c>
       <c r="H22" t="n">
-        <v>8.332391336033025</v>
+        <v>8.50165972973655</v>
       </c>
       <c r="I22" t="n">
-        <v>28.18358950879063</v>
+        <v>28.75612513902709</v>
       </c>
       <c r="J22" t="n">
-        <v>66.25869879379222</v>
+        <v>67.60471136826288</v>
       </c>
       <c r="K22" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0953081247781</v>
       </c>
       <c r="L22" t="n">
-        <v>139.3332596211493</v>
+        <v>142.1637456238359</v>
       </c>
       <c r="M22" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8917369323591</v>
       </c>
       <c r="N22" t="n">
-        <v>143.4142570137463</v>
+        <v>146.3276464526128</v>
       </c>
       <c r="O22" t="n">
-        <v>132.4662786223328</v>
+        <v>135.157265314871</v>
       </c>
       <c r="P22" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6503896159662</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.47613148895721</v>
+        <v>80.07033514376617</v>
       </c>
       <c r="R22" t="n">
-        <v>42.13906702251462</v>
+        <v>42.99510125079442</v>
       </c>
       <c r="S22" t="n">
-        <v>16.33250939792975</v>
+        <v>16.66429621871672</v>
       </c>
       <c r="T22" t="n">
-        <v>4.004318944719344</v>
+        <v>4.085664696294657</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05215742165482549</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.08928434194701</v>
+        <v>2.131727116210619</v>
       </c>
       <c r="H23" t="n">
-        <v>21.39688326696483</v>
+        <v>21.83155032889201</v>
       </c>
       <c r="I23" t="n">
-        <v>80.5471345929122</v>
+        <v>82.18340964770998</v>
       </c>
       <c r="J23" t="n">
-        <v>177.3253969173253</v>
+        <v>180.9276743294812</v>
       </c>
       <c r="K23" t="n">
-        <v>265.7648031119423</v>
+        <v>271.1636831586767</v>
       </c>
       <c r="L23" t="n">
-        <v>329.7047387918032</v>
+        <v>336.4025268914075</v>
       </c>
       <c r="M23" t="n">
-        <v>366.8600492079033</v>
+        <v>374.3126289943181</v>
       </c>
       <c r="N23" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>352.0209071692246</v>
+        <v>359.1720371514322</v>
       </c>
       <c r="P23" t="n">
-        <v>300.4416999774078</v>
+        <v>306.5450239699825</v>
       </c>
       <c r="Q23" t="n">
-        <v>225.6192044814304</v>
+        <v>230.2025466206896</v>
       </c>
       <c r="R23" t="n">
-        <v>131.241007544829</v>
+        <v>133.9071034636654</v>
       </c>
       <c r="S23" t="n">
-        <v>47.60956694211755</v>
+        <v>48.57673166064953</v>
       </c>
       <c r="T23" t="n">
-        <v>9.145842206873043</v>
+        <v>9.331635451211989</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1705381692968495</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140574560338541</v>
       </c>
       <c r="H24" t="n">
-        <v>10.79622901028888</v>
+        <v>11.0155490432696</v>
       </c>
       <c r="I24" t="n">
-        <v>38.48791904212884</v>
+        <v>39.26978201165591</v>
       </c>
       <c r="J24" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7592833519847</v>
       </c>
       <c r="K24" t="n">
-        <v>180.5107917673958</v>
+        <v>184.177778894667</v>
       </c>
       <c r="L24" t="n">
         <v>225.1508671422956</v>
@@ -32804,22 +32806,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5933421232145</v>
       </c>
       <c r="R24" t="n">
-        <v>69.40573018603516</v>
+        <v>70.81567314101927</v>
       </c>
       <c r="S24" t="n">
-        <v>20.76386460425675</v>
+        <v>21.18567220628824</v>
       </c>
       <c r="T24" t="n">
-        <v>4.505783133721833</v>
+        <v>4.597315881364556</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07503780002227248</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9562193970051328</v>
       </c>
       <c r="H25" t="n">
-        <v>8.332391336033025</v>
+        <v>8.50165972973655</v>
       </c>
       <c r="I25" t="n">
-        <v>28.18358950879063</v>
+        <v>28.75612513902709</v>
       </c>
       <c r="J25" t="n">
-        <v>66.25869879379222</v>
+        <v>67.60471136826288</v>
       </c>
       <c r="K25" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0953081247781</v>
       </c>
       <c r="L25" t="n">
-        <v>139.3332596211493</v>
+        <v>142.1637456238359</v>
       </c>
       <c r="M25" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8917369323591</v>
       </c>
       <c r="N25" t="n">
-        <v>143.4142570137463</v>
+        <v>146.3276464526128</v>
       </c>
       <c r="O25" t="n">
-        <v>132.4662786223328</v>
+        <v>135.157265314871</v>
       </c>
       <c r="P25" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6503896159662</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.47613148895721</v>
+        <v>80.07033514376617</v>
       </c>
       <c r="R25" t="n">
-        <v>42.13906702251462</v>
+        <v>42.99510125079442</v>
       </c>
       <c r="S25" t="n">
-        <v>16.33250939792975</v>
+        <v>16.66429621871672</v>
       </c>
       <c r="T25" t="n">
-        <v>4.004318944719344</v>
+        <v>4.085664696294657</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05215742165482549</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.08928434194701</v>
+        <v>2.131727116210619</v>
       </c>
       <c r="H26" t="n">
-        <v>21.39688326696483</v>
+        <v>21.83155032889201</v>
       </c>
       <c r="I26" t="n">
-        <v>80.5471345929122</v>
+        <v>82.18340964770998</v>
       </c>
       <c r="J26" t="n">
-        <v>177.3253969173253</v>
+        <v>180.9276743294812</v>
       </c>
       <c r="K26" t="n">
-        <v>265.7648031119423</v>
+        <v>271.1636831586767</v>
       </c>
       <c r="L26" t="n">
-        <v>329.7047387918032</v>
+        <v>336.4025268914075</v>
       </c>
       <c r="M26" t="n">
-        <v>366.8600492079033</v>
+        <v>374.3126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>352.0209071692246</v>
+        <v>359.1720371514322</v>
       </c>
       <c r="P26" t="n">
-        <v>300.4416999774078</v>
+        <v>306.5450239699825</v>
       </c>
       <c r="Q26" t="n">
-        <v>225.6192044814304</v>
+        <v>230.2025466206896</v>
       </c>
       <c r="R26" t="n">
-        <v>131.241007544829</v>
+        <v>133.9071034636654</v>
       </c>
       <c r="S26" t="n">
-        <v>47.60956694211755</v>
+        <v>48.57673166064953</v>
       </c>
       <c r="T26" t="n">
-        <v>9.145842206873043</v>
+        <v>9.331635451211989</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1705381692968495</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140574560338541</v>
       </c>
       <c r="H27" t="n">
-        <v>10.79622901028888</v>
+        <v>11.0155490432696</v>
       </c>
       <c r="I27" t="n">
-        <v>38.48791904212884</v>
+        <v>39.26978201165591</v>
       </c>
       <c r="J27" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7592833519847</v>
       </c>
       <c r="K27" t="n">
-        <v>180.5107917673958</v>
+        <v>184.177778894667</v>
       </c>
       <c r="L27" t="n">
         <v>225.1508671422956</v>
@@ -33041,22 +33043,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5933421232145</v>
       </c>
       <c r="R27" t="n">
-        <v>69.40573018603516</v>
+        <v>70.81567314101927</v>
       </c>
       <c r="S27" t="n">
-        <v>20.76386460425675</v>
+        <v>21.18567220628824</v>
       </c>
       <c r="T27" t="n">
-        <v>4.505783133721833</v>
+        <v>4.597315881364556</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07503780002227248</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9562193970051328</v>
       </c>
       <c r="H28" t="n">
-        <v>8.332391336033025</v>
+        <v>8.50165972973655</v>
       </c>
       <c r="I28" t="n">
-        <v>28.18358950879063</v>
+        <v>28.75612513902709</v>
       </c>
       <c r="J28" t="n">
-        <v>66.25869879379222</v>
+        <v>67.60471136826288</v>
       </c>
       <c r="K28" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0953081247781</v>
       </c>
       <c r="L28" t="n">
-        <v>139.3332596211493</v>
+        <v>142.1637456238359</v>
       </c>
       <c r="M28" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8917369323591</v>
       </c>
       <c r="N28" t="n">
-        <v>143.4142570137463</v>
+        <v>146.3276464526128</v>
       </c>
       <c r="O28" t="n">
-        <v>132.4662786223328</v>
+        <v>135.157265314871</v>
       </c>
       <c r="P28" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6503896159662</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.47613148895721</v>
+        <v>80.07033514376617</v>
       </c>
       <c r="R28" t="n">
-        <v>42.13906702251462</v>
+        <v>42.99510125079442</v>
       </c>
       <c r="S28" t="n">
-        <v>16.33250939792975</v>
+        <v>16.66429621871672</v>
       </c>
       <c r="T28" t="n">
-        <v>4.004318944719344</v>
+        <v>4.085664696294657</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05215742165482549</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.08928434194701</v>
+        <v>2.131727116210619</v>
       </c>
       <c r="H29" t="n">
-        <v>21.39688326696483</v>
+        <v>21.83155032889201</v>
       </c>
       <c r="I29" t="n">
-        <v>80.5471345929122</v>
+        <v>82.18340964770998</v>
       </c>
       <c r="J29" t="n">
-        <v>177.3253969173253</v>
+        <v>180.9276743294812</v>
       </c>
       <c r="K29" t="n">
-        <v>265.7648031119423</v>
+        <v>271.1636831586767</v>
       </c>
       <c r="L29" t="n">
-        <v>329.7047387918032</v>
+        <v>336.4025268914075</v>
       </c>
       <c r="M29" t="n">
-        <v>366.8600492079033</v>
+        <v>374.3126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>352.0209071692246</v>
+        <v>359.1720371514322</v>
       </c>
       <c r="P29" t="n">
-        <v>300.4416999774078</v>
+        <v>306.5450239699825</v>
       </c>
       <c r="Q29" t="n">
-        <v>225.6192044814304</v>
+        <v>230.2025466206896</v>
       </c>
       <c r="R29" t="n">
-        <v>131.241007544829</v>
+        <v>133.9071034636654</v>
       </c>
       <c r="S29" t="n">
-        <v>47.60956694211755</v>
+        <v>48.57673166064953</v>
       </c>
       <c r="T29" t="n">
-        <v>9.145842206873043</v>
+        <v>9.331635451211989</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1705381692968495</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140574560338541</v>
       </c>
       <c r="H30" t="n">
-        <v>10.79622901028888</v>
+        <v>11.0155490432696</v>
       </c>
       <c r="I30" t="n">
-        <v>38.48791904212884</v>
+        <v>39.26978201165591</v>
       </c>
       <c r="J30" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7592833519847</v>
       </c>
       <c r="K30" t="n">
-        <v>180.5107917673958</v>
+        <v>184.177778894667</v>
       </c>
       <c r="L30" t="n">
         <v>225.1508671422956</v>
@@ -33278,22 +33280,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5933421232145</v>
       </c>
       <c r="R30" t="n">
-        <v>69.40573018603516</v>
+        <v>70.81567314101927</v>
       </c>
       <c r="S30" t="n">
-        <v>20.76386460425675</v>
+        <v>21.18567220628824</v>
       </c>
       <c r="T30" t="n">
-        <v>4.505783133721833</v>
+        <v>4.597315881364556</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07503780002227248</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9562193970051328</v>
       </c>
       <c r="H31" t="n">
-        <v>8.332391336033025</v>
+        <v>8.50165972973655</v>
       </c>
       <c r="I31" t="n">
-        <v>28.18358950879063</v>
+        <v>28.75612513902709</v>
       </c>
       <c r="J31" t="n">
-        <v>66.25869879379222</v>
+        <v>67.60471136826288</v>
       </c>
       <c r="K31" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0953081247781</v>
       </c>
       <c r="L31" t="n">
-        <v>139.3332596211493</v>
+        <v>142.1637456238359</v>
       </c>
       <c r="M31" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8917369323591</v>
       </c>
       <c r="N31" t="n">
-        <v>143.4142570137463</v>
+        <v>146.3276464526128</v>
       </c>
       <c r="O31" t="n">
-        <v>132.4662786223328</v>
+        <v>135.157265314871</v>
       </c>
       <c r="P31" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6503896159662</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.47613148895721</v>
+        <v>80.07033514376617</v>
       </c>
       <c r="R31" t="n">
-        <v>42.13906702251462</v>
+        <v>42.99510125079442</v>
       </c>
       <c r="S31" t="n">
-        <v>16.33250939792975</v>
+        <v>16.66429621871672</v>
       </c>
       <c r="T31" t="n">
-        <v>4.004318944719344</v>
+        <v>4.085664696294657</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05215742165482549</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.08928434194701</v>
+        <v>2.131727116210619</v>
       </c>
       <c r="H32" t="n">
-        <v>21.39688326696483</v>
+        <v>21.83155032889201</v>
       </c>
       <c r="I32" t="n">
-        <v>80.5471345929122</v>
+        <v>82.18340964770998</v>
       </c>
       <c r="J32" t="n">
-        <v>177.3253969173253</v>
+        <v>180.9276743294812</v>
       </c>
       <c r="K32" t="n">
-        <v>265.7648031119423</v>
+        <v>271.1636831586767</v>
       </c>
       <c r="L32" t="n">
-        <v>329.7047387918032</v>
+        <v>336.4025268914075</v>
       </c>
       <c r="M32" t="n">
-        <v>366.8600492079033</v>
+        <v>374.3126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>352.0209071692246</v>
+        <v>359.1720371514322</v>
       </c>
       <c r="P32" t="n">
-        <v>300.4416999774078</v>
+        <v>306.5450239699825</v>
       </c>
       <c r="Q32" t="n">
-        <v>225.6192044814304</v>
+        <v>230.2025466206896</v>
       </c>
       <c r="R32" t="n">
-        <v>131.241007544829</v>
+        <v>133.9071034636654</v>
       </c>
       <c r="S32" t="n">
-        <v>47.60956694211755</v>
+        <v>48.57673166064953</v>
       </c>
       <c r="T32" t="n">
-        <v>9.145842206873043</v>
+        <v>9.331635451211989</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1705381692968495</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140574560338541</v>
       </c>
       <c r="H33" t="n">
-        <v>10.79622901028888</v>
+        <v>11.0155490432696</v>
       </c>
       <c r="I33" t="n">
-        <v>38.48791904212884</v>
+        <v>39.26978201165591</v>
       </c>
       <c r="J33" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7592833519847</v>
       </c>
       <c r="K33" t="n">
-        <v>180.5107917673958</v>
+        <v>184.177778894667</v>
       </c>
       <c r="L33" t="n">
         <v>225.1508671422956</v>
@@ -33515,22 +33517,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5933421232145</v>
       </c>
       <c r="R33" t="n">
-        <v>69.40573018603516</v>
+        <v>70.81567314101927</v>
       </c>
       <c r="S33" t="n">
-        <v>20.76386460425675</v>
+        <v>21.18567220628824</v>
       </c>
       <c r="T33" t="n">
-        <v>4.505783133721833</v>
+        <v>4.597315881364556</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07503780002227248</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9562193970051328</v>
       </c>
       <c r="H34" t="n">
-        <v>8.332391336033025</v>
+        <v>8.50165972973655</v>
       </c>
       <c r="I34" t="n">
-        <v>28.18358950879063</v>
+        <v>28.75612513902709</v>
       </c>
       <c r="J34" t="n">
-        <v>66.25869879379222</v>
+        <v>67.60471136826288</v>
       </c>
       <c r="K34" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0953081247781</v>
       </c>
       <c r="L34" t="n">
-        <v>139.3332596211493</v>
+        <v>142.1637456238359</v>
       </c>
       <c r="M34" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8917369323591</v>
       </c>
       <c r="N34" t="n">
-        <v>143.4142570137463</v>
+        <v>146.3276464526128</v>
       </c>
       <c r="O34" t="n">
-        <v>132.4662786223328</v>
+        <v>135.157265314871</v>
       </c>
       <c r="P34" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6503896159662</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.47613148895721</v>
+        <v>80.07033514376617</v>
       </c>
       <c r="R34" t="n">
-        <v>42.13906702251462</v>
+        <v>42.99510125079442</v>
       </c>
       <c r="S34" t="n">
-        <v>16.33250939792975</v>
+        <v>16.66429621871672</v>
       </c>
       <c r="T34" t="n">
-        <v>4.004318944719344</v>
+        <v>4.085664696294657</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05215742165482549</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.08928434194701</v>
+        <v>2.131727116210619</v>
       </c>
       <c r="H35" t="n">
-        <v>21.39688326696483</v>
+        <v>21.83155032889201</v>
       </c>
       <c r="I35" t="n">
-        <v>80.5471345929122</v>
+        <v>82.18340964770998</v>
       </c>
       <c r="J35" t="n">
-        <v>177.3253969173253</v>
+        <v>180.9276743294812</v>
       </c>
       <c r="K35" t="n">
-        <v>265.7648031119423</v>
+        <v>271.1636831586767</v>
       </c>
       <c r="L35" t="n">
-        <v>329.7047387918032</v>
+        <v>336.4025268914075</v>
       </c>
       <c r="M35" t="n">
-        <v>366.8600492079033</v>
+        <v>374.3126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>352.0209071692246</v>
+        <v>359.1720371514322</v>
       </c>
       <c r="P35" t="n">
-        <v>300.4416999774078</v>
+        <v>306.5450239699825</v>
       </c>
       <c r="Q35" t="n">
-        <v>225.6192044814304</v>
+        <v>230.2025466206896</v>
       </c>
       <c r="R35" t="n">
-        <v>131.241007544829</v>
+        <v>133.9071034636654</v>
       </c>
       <c r="S35" t="n">
-        <v>47.60956694211755</v>
+        <v>48.57673166064953</v>
       </c>
       <c r="T35" t="n">
-        <v>9.145842206873043</v>
+        <v>9.331635451211989</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1705381692968495</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140574560338541</v>
       </c>
       <c r="H36" t="n">
-        <v>10.79622901028888</v>
+        <v>11.0155490432696</v>
       </c>
       <c r="I36" t="n">
-        <v>38.48791904212884</v>
+        <v>39.26978201165591</v>
       </c>
       <c r="J36" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7592833519847</v>
       </c>
       <c r="K36" t="n">
-        <v>180.5107917673958</v>
+        <v>184.177778894667</v>
       </c>
       <c r="L36" t="n">
         <v>225.1508671422956</v>
@@ -33752,22 +33754,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5933421232145</v>
       </c>
       <c r="R36" t="n">
-        <v>69.40573018603516</v>
+        <v>70.81567314101927</v>
       </c>
       <c r="S36" t="n">
-        <v>20.76386460425675</v>
+        <v>21.18567220628824</v>
       </c>
       <c r="T36" t="n">
-        <v>4.505783133721833</v>
+        <v>4.597315881364556</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07503780002227248</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9562193970051328</v>
       </c>
       <c r="H37" t="n">
-        <v>8.332391336033025</v>
+        <v>8.50165972973655</v>
       </c>
       <c r="I37" t="n">
-        <v>28.18358950879063</v>
+        <v>28.75612513902709</v>
       </c>
       <c r="J37" t="n">
-        <v>66.25869879379222</v>
+        <v>67.60471136826288</v>
       </c>
       <c r="K37" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0953081247781</v>
       </c>
       <c r="L37" t="n">
-        <v>139.3332596211493</v>
+        <v>142.1637456238359</v>
       </c>
       <c r="M37" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8917369323591</v>
       </c>
       <c r="N37" t="n">
-        <v>143.4142570137463</v>
+        <v>146.3276464526128</v>
       </c>
       <c r="O37" t="n">
-        <v>132.4662786223328</v>
+        <v>135.157265314871</v>
       </c>
       <c r="P37" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6503896159662</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.47613148895721</v>
+        <v>80.07033514376617</v>
       </c>
       <c r="R37" t="n">
-        <v>42.13906702251462</v>
+        <v>42.99510125079442</v>
       </c>
       <c r="S37" t="n">
-        <v>16.33250939792975</v>
+        <v>16.66429621871672</v>
       </c>
       <c r="T37" t="n">
-        <v>4.004318944719344</v>
+        <v>4.085664696294657</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05215742165482549</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.08928434194701</v>
+        <v>2.131727116210619</v>
       </c>
       <c r="H38" t="n">
-        <v>21.39688326696483</v>
+        <v>21.83155032889201</v>
       </c>
       <c r="I38" t="n">
-        <v>80.5471345929122</v>
+        <v>82.18340964770998</v>
       </c>
       <c r="J38" t="n">
-        <v>177.3253969173253</v>
+        <v>180.9276743294812</v>
       </c>
       <c r="K38" t="n">
-        <v>265.7648031119423</v>
+        <v>271.1636831586767</v>
       </c>
       <c r="L38" t="n">
-        <v>329.7047387918032</v>
+        <v>336.4025268914075</v>
       </c>
       <c r="M38" t="n">
-        <v>366.8600492079033</v>
+        <v>374.3126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>352.0209071692246</v>
+        <v>359.1720371514322</v>
       </c>
       <c r="P38" t="n">
-        <v>300.4416999774078</v>
+        <v>306.5450239699825</v>
       </c>
       <c r="Q38" t="n">
-        <v>225.6192044814304</v>
+        <v>230.2025466206896</v>
       </c>
       <c r="R38" t="n">
-        <v>131.241007544829</v>
+        <v>133.9071034636654</v>
       </c>
       <c r="S38" t="n">
-        <v>47.60956694211755</v>
+        <v>48.57673166064953</v>
       </c>
       <c r="T38" t="n">
-        <v>9.145842206873043</v>
+        <v>9.331635451211989</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1705381692968495</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140574560338541</v>
       </c>
       <c r="H39" t="n">
-        <v>10.79622901028888</v>
+        <v>11.0155490432696</v>
       </c>
       <c r="I39" t="n">
-        <v>38.48791904212884</v>
+        <v>39.26978201165591</v>
       </c>
       <c r="J39" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7592833519847</v>
       </c>
       <c r="K39" t="n">
-        <v>180.5107917673958</v>
+        <v>184.177778894667</v>
       </c>
       <c r="L39" t="n">
         <v>225.1508671422956</v>
@@ -33989,22 +33991,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5933421232145</v>
       </c>
       <c r="R39" t="n">
-        <v>69.40573018603516</v>
+        <v>70.81567314101927</v>
       </c>
       <c r="S39" t="n">
-        <v>20.76386460425675</v>
+        <v>21.18567220628824</v>
       </c>
       <c r="T39" t="n">
-        <v>4.505783133721833</v>
+        <v>4.597315881364556</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07503780002227248</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9562193970051328</v>
       </c>
       <c r="H40" t="n">
-        <v>8.332391336033025</v>
+        <v>8.50165972973655</v>
       </c>
       <c r="I40" t="n">
-        <v>28.18358950879063</v>
+        <v>28.75612513902709</v>
       </c>
       <c r="J40" t="n">
-        <v>66.25869879379222</v>
+        <v>67.60471136826288</v>
       </c>
       <c r="K40" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0953081247781</v>
       </c>
       <c r="L40" t="n">
-        <v>139.3332596211493</v>
+        <v>142.1637456238359</v>
       </c>
       <c r="M40" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8917369323591</v>
       </c>
       <c r="N40" t="n">
-        <v>143.4142570137463</v>
+        <v>146.3276464526128</v>
       </c>
       <c r="O40" t="n">
-        <v>132.4662786223328</v>
+        <v>135.157265314871</v>
       </c>
       <c r="P40" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6503896159662</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.47613148895721</v>
+        <v>80.07033514376617</v>
       </c>
       <c r="R40" t="n">
-        <v>42.13906702251462</v>
+        <v>42.99510125079442</v>
       </c>
       <c r="S40" t="n">
-        <v>16.33250939792975</v>
+        <v>16.66429621871672</v>
       </c>
       <c r="T40" t="n">
-        <v>4.004318944719344</v>
+        <v>4.085664696294657</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05215742165482549</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.08928434194701</v>
+        <v>2.131727116210619</v>
       </c>
       <c r="H41" t="n">
-        <v>21.39688326696483</v>
+        <v>21.83155032889201</v>
       </c>
       <c r="I41" t="n">
-        <v>80.5471345929122</v>
+        <v>82.18340964770998</v>
       </c>
       <c r="J41" t="n">
-        <v>177.3253969173253</v>
+        <v>180.9276743294812</v>
       </c>
       <c r="K41" t="n">
-        <v>265.7648031119423</v>
+        <v>271.1636831586767</v>
       </c>
       <c r="L41" t="n">
-        <v>329.7047387918032</v>
+        <v>336.4025268914075</v>
       </c>
       <c r="M41" t="n">
-        <v>366.8600492079033</v>
+        <v>374.3126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>352.0209071692246</v>
+        <v>359.1720371514322</v>
       </c>
       <c r="P41" t="n">
-        <v>300.4416999774078</v>
+        <v>306.5450239699825</v>
       </c>
       <c r="Q41" t="n">
-        <v>225.6192044814304</v>
+        <v>230.2025466206896</v>
       </c>
       <c r="R41" t="n">
-        <v>131.241007544829</v>
+        <v>133.9071034636654</v>
       </c>
       <c r="S41" t="n">
-        <v>47.60956694211755</v>
+        <v>48.57673166064953</v>
       </c>
       <c r="T41" t="n">
-        <v>9.145842206873043</v>
+        <v>9.331635451211989</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1705381692968495</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140574560338541</v>
       </c>
       <c r="H42" t="n">
-        <v>10.79622901028888</v>
+        <v>11.0155490432696</v>
       </c>
       <c r="I42" t="n">
-        <v>38.48791904212884</v>
+        <v>39.26978201165591</v>
       </c>
       <c r="J42" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7592833519847</v>
       </c>
       <c r="K42" t="n">
-        <v>180.5107917673958</v>
+        <v>184.177778894667</v>
       </c>
       <c r="L42" t="n">
         <v>225.1508671422956</v>
@@ -34226,22 +34228,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5933421232145</v>
       </c>
       <c r="R42" t="n">
-        <v>69.40573018603516</v>
+        <v>70.81567314101927</v>
       </c>
       <c r="S42" t="n">
-        <v>20.76386460425675</v>
+        <v>21.18567220628824</v>
       </c>
       <c r="T42" t="n">
-        <v>4.505783133721833</v>
+        <v>4.597315881364556</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07503780002227248</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9562193970051328</v>
       </c>
       <c r="H43" t="n">
-        <v>8.332391336033025</v>
+        <v>8.50165972973655</v>
       </c>
       <c r="I43" t="n">
-        <v>28.18358950879063</v>
+        <v>28.75612513902709</v>
       </c>
       <c r="J43" t="n">
-        <v>66.25869879379222</v>
+        <v>67.60471136826288</v>
       </c>
       <c r="K43" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0953081247781</v>
       </c>
       <c r="L43" t="n">
-        <v>139.3332596211493</v>
+        <v>142.1637456238359</v>
       </c>
       <c r="M43" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8917369323591</v>
       </c>
       <c r="N43" t="n">
-        <v>143.4142570137463</v>
+        <v>146.3276464526128</v>
       </c>
       <c r="O43" t="n">
-        <v>132.4662786223328</v>
+        <v>135.157265314871</v>
       </c>
       <c r="P43" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6503896159662</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.47613148895721</v>
+        <v>80.07033514376617</v>
       </c>
       <c r="R43" t="n">
-        <v>42.13906702251462</v>
+        <v>42.99510125079442</v>
       </c>
       <c r="S43" t="n">
-        <v>16.33250939792975</v>
+        <v>16.66429621871672</v>
       </c>
       <c r="T43" t="n">
-        <v>4.004318944719344</v>
+        <v>4.085664696294657</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05215742165482549</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.08928434194701</v>
+        <v>2.131727116210619</v>
       </c>
       <c r="H44" t="n">
-        <v>21.39688326696483</v>
+        <v>21.83155032889201</v>
       </c>
       <c r="I44" t="n">
-        <v>80.5471345929122</v>
+        <v>82.18340964770998</v>
       </c>
       <c r="J44" t="n">
-        <v>177.3253969173253</v>
+        <v>180.9276743294812</v>
       </c>
       <c r="K44" t="n">
-        <v>265.7648031119423</v>
+        <v>271.1636831586767</v>
       </c>
       <c r="L44" t="n">
-        <v>329.7047387918032</v>
+        <v>336.4025268914075</v>
       </c>
       <c r="M44" t="n">
-        <v>366.8600492079033</v>
+        <v>374.3126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>352.0209071692246</v>
+        <v>359.1720371514322</v>
       </c>
       <c r="P44" t="n">
-        <v>300.4416999774078</v>
+        <v>306.5450239699825</v>
       </c>
       <c r="Q44" t="n">
-        <v>225.6192044814304</v>
+        <v>230.2025466206896</v>
       </c>
       <c r="R44" t="n">
-        <v>131.241007544829</v>
+        <v>133.9071034636654</v>
       </c>
       <c r="S44" t="n">
-        <v>47.60956694211755</v>
+        <v>48.57673166064953</v>
       </c>
       <c r="T44" t="n">
-        <v>9.145842206873043</v>
+        <v>9.331635451211989</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1705381692968495</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.117865674089856</v>
+        <v>1.140574560338541</v>
       </c>
       <c r="H45" t="n">
-        <v>10.79622901028888</v>
+        <v>11.0155490432696</v>
       </c>
       <c r="I45" t="n">
-        <v>38.48791904212884</v>
+        <v>39.26978201165591</v>
       </c>
       <c r="J45" t="n">
-        <v>105.6137916033755</v>
+        <v>107.7592833519847</v>
       </c>
       <c r="K45" t="n">
-        <v>180.5107917673958</v>
+        <v>184.177778894667</v>
       </c>
       <c r="L45" t="n">
         <v>225.1508671422956</v>
@@ -34463,22 +34465,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>213.4633145549306</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>142.6945727136456</v>
+        <v>145.5933421232145</v>
       </c>
       <c r="R45" t="n">
-        <v>69.40573018603516</v>
+        <v>70.81567314101927</v>
       </c>
       <c r="S45" t="n">
-        <v>20.76386460425675</v>
+        <v>21.18567220628824</v>
       </c>
       <c r="T45" t="n">
-        <v>4.505783133721833</v>
+        <v>4.597315881364556</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.07503780002227248</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.9562193970051328</v>
       </c>
       <c r="H46" t="n">
-        <v>8.332391336033025</v>
+        <v>8.50165972973655</v>
       </c>
       <c r="I46" t="n">
-        <v>28.18358950879063</v>
+        <v>28.75612513902709</v>
       </c>
       <c r="J46" t="n">
-        <v>66.25869879379222</v>
+        <v>67.60471136826288</v>
       </c>
       <c r="K46" t="n">
-        <v>108.8833959861983</v>
+        <v>111.0953081247781</v>
       </c>
       <c r="L46" t="n">
-        <v>139.3332596211493</v>
+        <v>142.1637456238359</v>
       </c>
       <c r="M46" t="n">
-        <v>146.9073863059482</v>
+        <v>149.8917369323591</v>
       </c>
       <c r="N46" t="n">
-        <v>143.4142570137463</v>
+        <v>146.3276464526128</v>
       </c>
       <c r="O46" t="n">
-        <v>132.4662786223328</v>
+        <v>135.157265314871</v>
       </c>
       <c r="P46" t="n">
-        <v>113.3477856181833</v>
+        <v>115.6503896159662</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.47613148895721</v>
+        <v>80.07033514376617</v>
       </c>
       <c r="R46" t="n">
-        <v>42.13906702251462</v>
+        <v>42.99510125079442</v>
       </c>
       <c r="S46" t="n">
-        <v>16.33250939792975</v>
+        <v>16.66429621871672</v>
       </c>
       <c r="T46" t="n">
-        <v>4.004318944719344</v>
+        <v>4.085664696294657</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.05215742165482549</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_5_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>358916.0304775628</v>
+        <v>208601.2388580347</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4551635.668092856</v>
+        <v>4551635.668092857</v>
       </c>
     </row>
     <row r="11">
@@ -22573,22 +22573,22 @@
         <v>194.8884892770409</v>
       </c>
       <c r="K2" t="n">
-        <v>208.8044044337869</v>
+        <v>208.8044044337868</v>
       </c>
       <c r="L2" t="n">
-        <v>198.4692536918421</v>
+        <v>198.4692536918419</v>
       </c>
       <c r="M2" t="n">
-        <v>168.8526231919619</v>
+        <v>168.8526231919618</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0116648463991</v>
+        <v>164.011664846399</v>
       </c>
       <c r="O2" t="n">
-        <v>176.7602506822117</v>
+        <v>176.7602506822116</v>
       </c>
       <c r="P2" t="n">
-        <v>207.4912151671663</v>
+        <v>207.4912151671662</v>
       </c>
       <c r="Q2" t="n">
         <v>234.8886889013949</v>
@@ -22646,31 +22646,31 @@
         <v>150.512233001205</v>
       </c>
       <c r="I3" t="n">
-        <v>140.1687047430027</v>
+        <v>140.1687047430026</v>
       </c>
       <c r="J3" t="n">
-        <v>146.9621291997691</v>
+        <v>146.962129199769</v>
       </c>
       <c r="K3" t="n">
         <v>122.8972520627128</v>
       </c>
       <c r="L3" t="n">
-        <v>89.21604774291296</v>
+        <v>89.21604774291291</v>
       </c>
       <c r="M3" t="n">
-        <v>72.33828251541533</v>
+        <v>72.33828251541522</v>
       </c>
       <c r="N3" t="n">
-        <v>50.60230808099814</v>
+        <v>50.60230808099803</v>
       </c>
       <c r="O3" t="n">
-        <v>82.76311198924964</v>
+        <v>82.76311198924955</v>
       </c>
       <c r="P3" t="n">
-        <v>98.15826222482802</v>
+        <v>98.15826222482795</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.5542737331416</v>
+        <v>147.5542737331415</v>
       </c>
       <c r="R3" t="n">
         <v>197.8585080830906</v>
@@ -22734,7 +22734,7 @@
         <v>148.6663881448517</v>
       </c>
       <c r="L4" t="n">
-        <v>141.1539935207356</v>
+        <v>141.1539935207355</v>
       </c>
       <c r="M4" t="n">
         <v>143.4789031011296</v>
@@ -22743,10 +22743,10 @@
         <v>127.1698413379505</v>
       </c>
       <c r="O4" t="n">
-        <v>150.8041229160515</v>
+        <v>150.8041229160514</v>
       </c>
       <c r="P4" t="n">
-        <v>160.327568355319</v>
+        <v>160.3275683553189</v>
       </c>
       <c r="Q4" t="n">
         <v>202.2450626684228</v>
@@ -22816,10 +22816,10 @@
         <v>141.0849161526705</v>
       </c>
       <c r="M5" t="n">
-        <v>105.0014909015127</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N5" t="n">
-        <v>99.1273544811869</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O5" t="n">
         <v>115.4918363067663</v>
@@ -22895,7 +22895,7 @@
         <v>46.97136804258392</v>
       </c>
       <c r="M6" t="n">
-        <v>23.04073385794618</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -23047,7 +23047,7 @@
         <v>149.6006091008002</v>
       </c>
       <c r="K8" t="n">
-        <v>140.9296117214526</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L8" t="n">
         <v>114.2645714324614</v>
@@ -23129,7 +23129,7 @@
         <v>76.79584047590225</v>
       </c>
       <c r="L9" t="n">
-        <v>27.22701059689194</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23141,7 +23141,7 @@
         <v>14.83625009529541</v>
       </c>
       <c r="P9" t="n">
-        <v>43.64096701700126</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q9" t="n">
         <v>111.1109056471342</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>240078.0855115834</v>
+        <v>240078.0855115835</v>
       </c>
     </row>
     <row r="3">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71134.24755898771</v>
+        <v>71134.24755898776</v>
       </c>
       <c r="C2" t="n">
-        <v>93240.75063988265</v>
+        <v>93240.75063988261</v>
       </c>
       <c r="D2" t="n">
         <v>103171.7950954278</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280472.4223279489</v>
+        <v>280472.422327949</v>
       </c>
       <c r="C3" t="n">
-        <v>82367.79156438293</v>
+        <v>82367.79156438279</v>
       </c>
       <c r="D3" t="n">
         <v>36206.25146095255</v>
       </c>
       <c r="E3" t="n">
-        <v>85540.7134120323</v>
+        <v>85540.71341203229</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249310.9556732757</v>
+        <v>-269842.585228288</v>
       </c>
       <c r="C6" t="n">
-        <v>-31071.72377511363</v>
+        <v>-50221.69688756973</v>
       </c>
       <c r="D6" t="n">
-        <v>24099.23142954407</v>
+        <v>5569.948595559435</v>
       </c>
       <c r="E6" t="n">
-        <v>28801.53707489563</v>
+        <v>11692.89665409421</v>
       </c>
       <c r="F6" t="n">
-        <v>114342.2504869279</v>
+        <v>97233.61006612651</v>
       </c>
       <c r="G6" t="n">
-        <v>114342.2504869279</v>
+        <v>97233.61006612651</v>
       </c>
       <c r="H6" t="n">
-        <v>114342.2504869279</v>
+        <v>97233.61006612651</v>
       </c>
       <c r="I6" t="n">
-        <v>114342.2504869279</v>
+        <v>97233.61006612651</v>
       </c>
       <c r="J6" t="n">
-        <v>114342.2504869279</v>
+        <v>97233.61006612651</v>
       </c>
       <c r="K6" t="n">
-        <v>114342.2504869279</v>
+        <v>97233.61006612651</v>
       </c>
       <c r="L6" t="n">
-        <v>114342.2504869279</v>
+        <v>97233.61006612651</v>
       </c>
       <c r="M6" t="n">
-        <v>114342.2504869279</v>
+        <v>97233.61006612651</v>
       </c>
       <c r="N6" t="n">
-        <v>114342.2504869279</v>
+        <v>97233.61006612651</v>
       </c>
       <c r="O6" t="n">
-        <v>114342.2504869279</v>
+        <v>97233.61006612651</v>
       </c>
       <c r="P6" t="n">
-        <v>114342.2504869279</v>
+        <v>97233.61006612651</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>291.0633442346137</v>
+        <v>291.0633442346139</v>
       </c>
       <c r="C3" t="n">
         <v>381.5175619547406</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>291.0633442346137</v>
+        <v>291.0633442346139</v>
       </c>
       <c r="C3" t="n">
-        <v>90.45421772012683</v>
+        <v>90.45421772012668</v>
       </c>
       <c r="D3" t="n">
         <v>42.27657588613982</v>
@@ -31044,46 +31044,46 @@
         <v>1.170103896420557</v>
       </c>
       <c r="H2" t="n">
-        <v>11.98332652921703</v>
+        <v>11.98332652921704</v>
       </c>
       <c r="I2" t="n">
-        <v>45.11043046675356</v>
+        <v>45.11043046675359</v>
       </c>
       <c r="J2" t="n">
-        <v>99.31110557882432</v>
+        <v>99.31110557882438</v>
       </c>
       <c r="K2" t="n">
-        <v>148.8416035143065</v>
+        <v>148.8416035143066</v>
       </c>
       <c r="L2" t="n">
-        <v>184.6511706343872</v>
+        <v>184.6511706343873</v>
       </c>
       <c r="M2" t="n">
-        <v>205.4600058023562</v>
+        <v>205.4600058023564</v>
       </c>
       <c r="N2" t="n">
-        <v>208.7845634980612</v>
+        <v>208.7845634980613</v>
       </c>
       <c r="O2" t="n">
-        <v>197.1493428780292</v>
+        <v>197.1493428780294</v>
       </c>
       <c r="P2" t="n">
-        <v>168.2624029351467</v>
+        <v>168.2624029351468</v>
       </c>
       <c r="Q2" t="n">
-        <v>126.3580571445855</v>
+        <v>126.3580571445856</v>
       </c>
       <c r="R2" t="n">
-        <v>73.50153888352787</v>
+        <v>73.50153888352791</v>
       </c>
       <c r="S2" t="n">
-        <v>26.66374253968347</v>
+        <v>26.66374253968348</v>
       </c>
       <c r="T2" t="n">
-        <v>5.122129806580991</v>
+        <v>5.122129806580993</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09360831171364453</v>
+        <v>0.09360831171364459</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6260607781650183</v>
+        <v>0.6260607781650186</v>
       </c>
       <c r="H3" t="n">
-        <v>6.046429094383203</v>
+        <v>6.046429094383207</v>
       </c>
       <c r="I3" t="n">
-        <v>21.55516275699734</v>
+        <v>21.55516275699735</v>
       </c>
       <c r="J3" t="n">
-        <v>59.1490141335643</v>
+        <v>59.14901413356434</v>
       </c>
       <c r="K3" t="n">
-        <v>101.0950862706205</v>
+        <v>101.0950862706206</v>
       </c>
       <c r="L3" t="n">
-        <v>135.9348193993826</v>
+        <v>135.9348193993827</v>
       </c>
       <c r="M3" t="n">
-        <v>158.6295226078645</v>
+        <v>158.6295226078646</v>
       </c>
       <c r="N3" t="n">
-        <v>162.8279740544185</v>
+        <v>162.8279740544186</v>
       </c>
       <c r="O3" t="n">
-        <v>148.9557852329726</v>
+        <v>148.9557852329727</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5501498234586</v>
+        <v>119.5501498234587</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.91610915664339</v>
+        <v>79.91610915664343</v>
       </c>
       <c r="R3" t="n">
-        <v>38.87068585835088</v>
+        <v>38.87068585835091</v>
       </c>
       <c r="S3" t="n">
         <v>11.62880436635461</v>
       </c>
       <c r="T3" t="n">
-        <v>2.523464276901981</v>
+        <v>2.523464276901982</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04118820908980385</v>
+        <v>0.04118820908980387</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5248683256689756</v>
+        <v>0.5248683256689758</v>
       </c>
       <c r="H4" t="n">
-        <v>4.666556568220531</v>
+        <v>4.666556568220534</v>
       </c>
       <c r="I4" t="n">
         <v>15.78422201193611</v>
       </c>
       <c r="J4" t="n">
-        <v>37.10819062479657</v>
+        <v>37.10819062479659</v>
       </c>
       <c r="K4" t="n">
-        <v>60.98015638226823</v>
+        <v>60.98015638226827</v>
       </c>
       <c r="L4" t="n">
-        <v>78.03360543627662</v>
+        <v>78.03360543627666</v>
       </c>
       <c r="M4" t="n">
-        <v>82.27549581372858</v>
+        <v>82.27549581372863</v>
       </c>
       <c r="N4" t="n">
-        <v>80.31916841805338</v>
+        <v>80.31916841805342</v>
       </c>
       <c r="O4" t="n">
-        <v>74.18775206819305</v>
+        <v>74.18775206819309</v>
       </c>
       <c r="P4" t="n">
-        <v>63.48043822454589</v>
+        <v>63.48043822454593</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.95056497942667</v>
+        <v>43.9505649794267</v>
       </c>
       <c r="R4" t="n">
-        <v>23.59998853417047</v>
+        <v>23.59998853417049</v>
       </c>
       <c r="S4" t="n">
-        <v>9.147023457340234</v>
+        <v>9.147023457340239</v>
       </c>
       <c r="T4" t="n">
-        <v>2.242619209676531</v>
+        <v>2.242619209676532</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02862918140012597</v>
+        <v>0.02862918140012599</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31299,7 +31299,7 @@
         <v>269.3111380928054</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6688738632733</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O5" t="n">
         <v>258.4177572534746</v>
@@ -31317,7 +31317,7 @@
         <v>34.95007615293931</v>
       </c>
       <c r="T5" t="n">
-        <v>6.713942220932166</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U5" t="n">
         <v>0.1226991154025295</v>
@@ -31357,10 +31357,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8206226804309515</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H6" t="n">
-        <v>7.925487466267348</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I6" t="n">
         <v>28.25389491834636</v>
@@ -31393,7 +31393,7 @@
         <v>50.95059063237085</v>
       </c>
       <c r="S6" t="n">
-        <v>15.24270636677666</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T6" t="n">
         <v>3.307685277701948</v>
@@ -31472,7 +31472,7 @@
         <v>30.93419444964174</v>
       </c>
       <c r="S7" t="n">
-        <v>11.98965846339734</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T7" t="n">
         <v>2.939561542929968</v>
@@ -31524,7 +31524,7 @@
         <v>65.68170250898712</v>
       </c>
       <c r="J8" t="n">
-        <v>144.5989857550651</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K8" t="n">
         <v>216.7163962266408</v>
@@ -31554,7 +31554,7 @@
         <v>38.82295041627765</v>
       </c>
       <c r="T8" t="n">
-        <v>7.457924978486244</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U8" t="n">
         <v>0.13629560211968</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9115572021483087</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H9" t="n">
         <v>8.803723504958668</v>
@@ -31603,13 +31603,13 @@
         <v>31.38475454765011</v>
       </c>
       <c r="J9" t="n">
-        <v>86.12216531349439</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K9" t="n">
         <v>147.1964978574311</v>
       </c>
       <c r="L9" t="n">
-        <v>197.9238565454036</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M9" t="n">
         <v>230.9678051232798</v>
@@ -31676,7 +31676,7 @@
         <v>0.7642189370901121</v>
       </c>
       <c r="H10" t="n">
-        <v>6.794601095219365</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I10" t="n">
         <v>22.98214767176447</v>
@@ -31685,7 +31685,7 @@
         <v>54.03027885227092</v>
       </c>
       <c r="K10" t="n">
-        <v>88.78834560010573</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L10" t="n">
         <v>113.6185136106518</v>
@@ -32007,7 +32007,7 @@
         <v>336.4025268914075</v>
       </c>
       <c r="M14" t="n">
-        <v>374.3126289943181</v>
+        <v>374.3126289943182</v>
       </c>
       <c r="N14" t="n">
         <v>372.7962283444602</v>
